--- a/Ifood-Teste-6.xlsx
+++ b/Ifood-Teste-6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="429">
   <si>
     <t>Tweets</t>
   </si>
@@ -25,68 +25,13 @@
     <t>Categoria atribuida automaticamente</t>
   </si>
   <si>
-    <t>rt @curtovcs: só eu que fico xingando os anúncios do youtube? 
-anúncio: ifood
-eu: ifood teu cu fdp</t>
-  </si>
-  <si>
-    <t>@radioproletrio não uso uber por questões ideológicas mesmo. até o delivery tipo rappi e ifood, cortei da minha vida. não quero ser culpada da morte de ninguém.</t>
-  </si>
-  <si>
-    <t>@maynight0 qnd eu voltar pro d3 te dou um ifood, espeda sentado</t>
-  </si>
-  <si>
-    <t>obrigada, @ifood  pela existência do loop
-comendo meu almoço por 3 reais</t>
-  </si>
-  <si>
-    <t>@mandellivaleria @ifood o pior é q olhei mais cedo e tinham as mesmas coisas</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/pmh9ocfakd</t>
-  </si>
-  <si>
-    <t>serio que vc chama isso de almoço @ifood?? https://t.co/dg8910gwps</t>
-  </si>
-  <si>
-    <t>ifood você já me amou mais</t>
-  </si>
-  <si>
-    <t>eu não suporto mais ver anúncio da @voude99 e do @ifood  pelo amor de deus</t>
-  </si>
-  <si>
-    <t>morta em casa vendo youtube muito laricada peco um ifood</t>
-  </si>
-  <si>
-    <t>morrendo de fome e meu amigo ifood não me manda um mísero cupom de desconto.</t>
-  </si>
-  <si>
-    <t>alguém compartilha um cupom do @ifood comigo 🙏🏽🙏🏽🙏🏽</t>
-  </si>
-  <si>
-    <t>ifood dá um cupom top pra minha amiga e pra mim nada</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/8lcr1qgccu</t>
-  </si>
-  <si>
-    <t>agora que não tenho cartão o ifood manda cupom todo dia inferno</t>
+    <t>ganhei um cupom do ifood de 15 reais, fui pedir um cookie do foca pipipi promoção não válida pra esse restaurante popopo vai toma no cu</t>
+  </si>
+  <si>
+    <t>@ifood meu pedido veio errado amoreee</t>
+  </si>
+  <si>
+    <t>o cara levou meu ifood embora, hoje o dia tá ótimo kkkkkk</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -97,69 +42,38 @@
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/xagwt9l37a</t>
-  </si>
-  <si>
-    <t>@biankro_ @ifood qual é?</t>
-  </si>
-  <si>
-    <t>usem ai esse código do ifood preciso ganhar o de 20$ de desconto kkk https://t.co/jfdeahbb4o</t>
-  </si>
-  <si>
-    <t>rt @eubarbaramarti1: eu aqui lembrando que preciso fazer dieta e do nada o ifood manda mensagem, parece aquele boy que reaparece no momento…</t>
-  </si>
-  <si>
-    <t>@mario_luiz19 @ifood tem horas que eu te odeio tanto 🤦🏼‍♀️</t>
-  </si>
-  <si>
-    <t>cupom de desconto rappi:
-gkz310126052
-ganhe r$150 em frete + r$30 para usar como quiser.  baixe o app e use o código: gkz310126052 https://t.co/rbm8h7m03b #rappi #ifood #ubereats #pedeumrappi #tercadetremurasdv #tercou #bomdia #afazenda11 #encontro</t>
-  </si>
-  <si>
-    <t>vamo lá ifood n ne decepciona hj</t>
-  </si>
-  <si>
-    <t>como assim @ifood ???? https://t.co/chcgiec387</t>
-  </si>
-  <si>
-    <t>cupons de desconto fresquinhos pro seu almoço
-🍣 cupom rappi (r$150)
-3dp36453223
-🍖 cupom uber eats  (r$5)
-eats-0nh7ei
-#uber #ubereats #rappi #ifood</t>
-  </si>
-  <si>
-    <t>obg ifood salvou mosntro o açaí 🥴</t>
-  </si>
-  <si>
-    <t>amo o @ifood, to pedindo meu almoço por r$ 5,90
-#gratidao</t>
-  </si>
-  <si>
-    <t>obrigado @ifood  pelo almoço</t>
-  </si>
-  <si>
-    <t>@ifood salvou meu almoço, te amo</t>
-  </si>
-  <si>
-    <t>pedi um peixe com molho de camarão no ifood 🤤🤤</t>
-  </si>
-  <si>
-    <t>@mssmarvelx rappi na primeira comida grátis mas ifood eu gosto mais</t>
-  </si>
-  <si>
-    <t>pedi um rango no ifood e o app disse que foi entregue mas não foi kkkkkkkk qq eu faço</t>
-  </si>
-  <si>
-    <t>eu so queria cupom ifood hj</t>
-  </si>
-  <si>
-    <t>o ifood me ouviu e ganhei um cupom de 15 conto</t>
-  </si>
-  <si>
-    <t>só pq falei q não tava ganhando cupom do ifood mais, ganhei hj de $15</t>
+https://t.co/aip13qrw3w -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/m8bbpmpiun</t>
+  </si>
+  <si>
+    <t>eu preciso apagar ifood e uber eats do celular. to me segurando pra não gastar mais din em rango</t>
+  </si>
+  <si>
+    <t>poxa ifood nenhum cupom</t>
+  </si>
+  <si>
+    <t>pede açaí pelo ifood kkkkk — me da um de graça e pede pra mim ?? 😔 https://t.co/gpztfpe4nd</t>
+  </si>
+  <si>
+    <t>ifood podia colocar a placa do entregador e nome só pra facilitar um pouco</t>
+  </si>
+  <si>
+    <t>pq o ifood sendo o anjo q é, me enviou outro cupom</t>
+  </si>
+  <si>
+    <t>@ifood motivos mais lindos do que esse não tem. 
+fotos do casal em questão às 23h de uma segunda feira sentados na sacada aguardando ansiosamente o motoboy chegar com o hambúrguer com fritas (que tava muito bom por sinal) https://t.co/gk2mvw8che</t>
+  </si>
+  <si>
+    <t>@ifood não consegui, me ajuda na dm</t>
+  </si>
+  <si>
+    <t>só se for a moto do ifood https://t.co/5pwvbcfms4</t>
+  </si>
+  <si>
+    <t>o @ifood é uma vergonha. sábado fiz um pedido e  não foi entregue. fui cobrado no cartão e tento fazer contato desde então. hoje depois de 3 dias eles me enviam uma porra de uma mensagem automática, não se deram nem ao trabalho o ocorrido. obs. não consigo contato em nenhum tel. https://t.co/yj2rnwtgl2</t>
+  </si>
+  <si>
+    <t>rt @mariafe03919401: olha que maravilha o queijo do ms agora vai está no ifood pra quem quiser comprar, pede o queijo no ifood 🧀😋😋👏👏👏👏 http…</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -170,37 +84,573 @@
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/msgnq2ulij</t>
-  </si>
-  <si>
-    <t>cupom de 15 no ifood fodase a vida saudável</t>
-  </si>
-  <si>
-    <t>ifood e rappi compraram o youtube não é possível</t>
-  </si>
-  <si>
-    <t>@manjotudo @ifood nem essa mensagem eu tive nenhum retorno nd kkkk</t>
-  </si>
-  <si>
-    <t>ifood vai patrocinar o almoço no mc donalds, meu momento chegou bctaaaa</t>
-  </si>
-  <si>
-    <t>@ifood pq vc me ferrou???????? te odeioooo</t>
-  </si>
-  <si>
-    <t>ganhei desconto no ifood e pedi logo né pq se não ia chegar dps da hora do meu intervalo, aí agr fui olhar os restaurantes que abriram e tem cada coisa maravi 🥺 arrependida estou</t>
-  </si>
-  <si>
-    <t>melhor coisa é olhar e escolher o almoço pelo ifood em são paulo.</t>
-  </si>
-  <si>
-    <t>@ifood libera cupom p almoço pf</t>
-  </si>
-  <si>
-    <t>porra ifood dando desconto de 15 q odio pq hj n é sextaaaa</t>
-  </si>
-  <si>
-    <t>@mandellivaleria @juziuzi @ifood topissimoooo</t>
+https://t.co/aplxn4tneq -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/d0wlem5lh2</t>
+  </si>
+  <si>
+    <t>métodos pra economizar: desinstalei o uber e o ifood
+só esqueci que eu preciso de uber p voltar p casa e fiquei na rua hj</t>
+  </si>
+  <si>
+    <t>me enchendo de doce às custas do ifood</t>
+  </si>
+  <si>
+    <t>@ifood sem a menor chance eu não curto vocês</t>
+  </si>
+  <si>
+    <t>@gabrielfuh_ sim concordo, mas nesse ponto tem outras soluções para entrega. não acho que tenha que sair do ifood mas o modelo de negócio não pode estar baseado nele e em nenhum marketplace. é trabalhar para formar uma equipe de entrega e trabalhar na divulgação via whatsapp</t>
+  </si>
+  <si>
+    <t>comprando um almoço por 7,50 obg ifood</t>
+  </si>
+  <si>
+    <t>@mario_luiz19 @ifood que ela nunca saiba disso então, se não tadinho de você, vai morrer de tanto trabalhar 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>caralho a mina namora o ifood https://t.co/s9r7yacgt2</t>
+  </si>
+  <si>
+    <t>vou pagar 3 conto em um açaí agora, @ifood obg por não me decepcionar kkk https://t.co/6astwhrrah</t>
+  </si>
+  <si>
+    <t>alô @ifood vocês vão desbugar o club5 do aplicativo quando? minha assinatura atual bugou com a assinatura da semana passada e agora não consigo pedir nada. vocês lançaram isso e nem suporte existe.</t>
+  </si>
+  <si>
+    <t>@esq1z0 aqui o meio de pagamento eh ifood</t>
+  </si>
+  <si>
+    <t>@duransaline @ifood menina, nn sei se foi sorte ou o que kk, mas oh</t>
+  </si>
+  <si>
+    <t>eu vo mata o ifood</t>
+  </si>
+  <si>
+    <t>a não ser que seja o entregador ifood https://t.co/lbgd2hfbd1</t>
+  </si>
+  <si>
+    <t>fui pedir um açai no ifood e o cupom nao se aplicava pro restaurante que eu queria https://t.co/vj4qez6jhj</t>
+  </si>
+  <si>
+    <t>eu nem almocei ainda e o ifood vem me mandar cupom pro lanche da tarde kkk</t>
+  </si>
+  <si>
+    <t>pra mim motorista de ifood que não coloca localização no app é terrorista</t>
+  </si>
+  <si>
+    <t>caraca, o @ifood bateu o recorde
+minha fome agradece https://t.co/pr89ozgbie</t>
+  </si>
+  <si>
+    <t>@jessinthesky_ @ifood aconteceu isso comigo esses dias tbm</t>
+  </si>
+  <si>
+    <t>@mabellaever @ifood eu vou comprar quero experimentar o queijo do favorito 🙏🙏🧀🧀</t>
+  </si>
+  <si>
+    <t>só passando pra dizer q n consigo comprar mais nd no ifood https://t.co/vz5pg5tdv6</t>
+  </si>
+  <si>
+    <t>minha mãe viu que fiquei desanimada e deixou eu pedir algo no ifood, não vivo sem essa mulher https://t.co/w3v9z7v3mo</t>
+  </si>
+  <si>
+    <t>o ifood me deu r$ 15,00 de desconto e nenhum lugar aceita meu pedido 😒</t>
+  </si>
+  <si>
+    <t>@ifood não to conseguindo passar cartão na minha conta, chama na dm pfv</t>
+  </si>
+  <si>
+    <t>@vinicabral quem não tem desconto no ifood que lute</t>
+  </si>
+  <si>
+    <t>desde 12h esperando minha comida chegar pelo ifood
+sera q o motoboy comeu</t>
+  </si>
+  <si>
+    <t>fluiu @ifood. obg por resolver mas não mexe com minha irma mais https://t.co/w0expjexml</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/3zrcwr80qu</t>
+  </si>
+  <si>
+    <t>@ifood me ajuda a resolver esse absurdo, por favor. não posso pagar por um produto que ao menos foi entregue.</t>
+  </si>
+  <si>
+    <t>@mario_luiz19 @ifood então já vou providenciar o lugar p guardar todos os brinquedos do mc lanche feliz 😂</t>
+  </si>
+  <si>
+    <t>@heve_caramujo manda um ifood aqui pra casa</t>
+  </si>
+  <si>
+    <t>@lfalavinaa @ifood que delicinha</t>
+  </si>
+  <si>
+    <t>desisti, @ifood . parabéns aos envolvidos</t>
+  </si>
+  <si>
+    <t>ganhei cupom de 15 reais no ifood, aguardando a andressa chegar pra gente pedir açaí 😋</t>
+  </si>
+  <si>
+    <t>mo bronca sair nesse sol q to esperando dar 19h p pedir meu açaí pelo ifood</t>
+  </si>
+  <si>
+    <t>rt @signosfodas: desconto no ifood de $20 na primeira compra, corre por tempo limitado, código: 85l1nrvmqa</t>
+  </si>
+  <si>
+    <t>pedi um almoço por 3$ no ifood, e não demoro!</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/nihpfjegea</t>
+  </si>
+  <si>
+    <t>o cara do ifood demorou 40 anos pra entregar a porra do meu lanche e ainda reclama que eu demorei pra descer pra buscar, no fim das contas eu e ele discutiu e quase saímos no soco, grande dia</t>
+  </si>
+  <si>
+    <t>meu deus ifood me deixa em paz</t>
+  </si>
+  <si>
+    <t>@ifood não consigo fazer o pedido</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? ri e nós do #ifood vamos te ajudar! insira o cupom k69mg51eau e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/ixafrjiims
+me ajuda a ganhar descontinho pls</t>
+  </si>
+  <si>
+    <t>@ifood todo mundo do meu trabalho ganha cupom todo dia, as vezes dois por dia, e eu não recebo nenhum mesmo com o app atualizado que homofobia é essa?????</t>
+  </si>
+  <si>
+    <t>@ahhkarla quero! diz pra mandar pra mim pelo @ifood 😅</t>
+  </si>
+  <si>
+    <t>gente atenção eu usei o ifood pela primeira vez ninguém me segura agora###</t>
+  </si>
+  <si>
+    <t>chegou cupom do ifood e fomos ver todos os restaurantes que podia estavam fechados ??</t>
+  </si>
+  <si>
+    <t>será q o ifood te entrega aqi em casa ?</t>
+  </si>
+  <si>
+    <t>u não aguento mais virar a esquina e vir cara assobiando vey, e sempre é os carinhas do ifood mano que saco</t>
+  </si>
+  <si>
+    <t>@amandanenis_ @xetdoifood morri! eu digo que @ifood é o @netflixbrasil  do gordinho. ninguém me acredita!</t>
+  </si>
+  <si>
+    <t>primeira vez que peço comida comida mesmo no @ifood tô me sentindo adulta por não ter pedido lanches</t>
+  </si>
+  <si>
+    <t>rt @mmaethe: r$15 conto de desconto no ifood no primeiro pedido, usa o código da amiga aqui yg2yx2x6v1</t>
+  </si>
+  <si>
+    <t>gastando todo o dinheiro que eu não tenho no ifood 🤦🏻‍♂️</t>
+  </si>
+  <si>
+    <t>2 horas que pedi e nada da minha comida, o ifood tá de mal cmg</t>
+  </si>
+  <si>
+    <t>a vontade que eu to de comer sushi n tá escrito, estou quase pedindo pelo ifood</t>
+  </si>
+  <si>
+    <t>@harujiggly toda vez que peço ifood</t>
+  </si>
+  <si>
+    <t>em reeducação alimentar, mas stalkeando o ifood</t>
+  </si>
+  <si>
+    <t>@xuliasampaio @ifood poxa e eu ganhei um cupom que é válido apenas em uma temakeria, coisa que eu nem como, injusto isto</t>
+  </si>
+  <si>
+    <t>gnt, eu tô muito feliz.
+comprei uma marmita enorme por 1 bonoro apenas.
+@ifood te amo</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/l1asvusbiy</t>
+  </si>
+  <si>
+    <t>to até agr esperando a @ifood devolver meus oito reais que paguei a mais em um pedido q não entregou o q eu tinha pedido</t>
+  </si>
+  <si>
+    <t>@mariahisteria @ifood nem de 15 nem de 10</t>
+  </si>
+  <si>
+    <t>rt @vindobem2: será q o ifood te entrega aqi em casa ?</t>
+  </si>
+  <si>
+    <t>ganhei um cupom no ifood e pedi um galão de 20 l de água ajsjwienjw</t>
+  </si>
+  <si>
+    <t>não tem como pagar com dinheiro no ifood? que bota</t>
+  </si>
+  <si>
+    <t>ganhei meus 15 reais de desconto no ifood p comprar meu açaí de 1l mais tarde</t>
+  </si>
+  <si>
+    <t>@ifood me ajuda pqp que ódio</t>
+  </si>
+  <si>
+    <t>sei la sabe o jeito q eu gasto todo meu dinheiro em marmita eh diferente
+eu preciso urgentemente tirar o ifood do meu celular</t>
+  </si>
+  <si>
+    <t>ifood nem pra dar um desconto q preste af</t>
+  </si>
+  <si>
+    <t>@ifood pelo amor de deus pq resolveram não aceitar mais nenhum cartão meu?????? socorro 🚨🚨🚨🚨🚨🚨🚨🚨🚨🚨 https://t.co/hxmd4jcpnw</t>
+  </si>
+  <si>
+    <t>@ravenning @ifood hahaha já responderam, clara. valeuuuu! 😌😘</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 -  30 reais + 150 em frete.
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem https://t.co/v49gqq4xep</t>
+  </si>
+  <si>
+    <t>eu pedi comida no ifood mas vai chegar de 14:30... vou chegar atrasada na aula do dalmir, pqp</t>
+  </si>
+  <si>
+    <t>ifood do caralho queria que vc fosse uma pessoa agr p eu te quebra</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/8fhv3wsrfs</t>
+  </si>
+  <si>
+    <t>@gomes_tey eu to trabalhando pra pagar dois e isso ta me dando nos nervos, pq a fatura so é ifood e uber</t>
+  </si>
+  <si>
+    <t>doces maria agora tem parceria com o ifood ❤</t>
+  </si>
+  <si>
+    <t>estava eu plena quando acordei tentando salvar o lanche do meu amg e vcs com essa putaria de não autorizar a compra. espero que a falência chegue pra vcs 🖕🏼@ifood</t>
+  </si>
+  <si>
+    <t>para mandar para aquela @ ou para o @ifood 😂 https://t.co/w1w1jl22mv</t>
+  </si>
+  <si>
+    <t>veyyy, cancelaram meu pedido no ifood!!!</t>
+  </si>
+  <si>
+    <t>@juliafariav @ifood kkkkkk sim af</t>
+  </si>
+  <si>
+    <t>@naluand0 eu tava olhando o cardápio neles no ifood e eu devo chegar lá só pra respirar e sair</t>
+  </si>
+  <si>
+    <t>@brandnewseason @ifood na moral vei todos meus ultimos pedidos foi essa luta</t>
+  </si>
+  <si>
+    <t>finalmente um cupom do ifood que poderei usar e agora pagarei 5,90 no subway de 15cm hahahahah por essa você não esperava capitalismo</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 -  30 reais + 150 em frete.
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/uku9xklm4x -&amp;gt;  até 179 reais de créditos em hospedagem</t>
+  </si>
+  <si>
+    <t>@jessinthesky_ @ifood mano o ifood nunca faz nada sobre os estabelecimentos no max eles te dão o estorno às vezes demoram mais de 10 dias que suporte lixo pra um app tão bom</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/4zbxux1bqb</t>
+  </si>
+  <si>
+    <t>@ifood conte comigo para absolutamente tudo https://t.co/56a8pocfh6</t>
+  </si>
+  <si>
+    <t>esse atendimento do @ifood tá ficando cada vez pior. só parabéns pela ótima tratativa que ainda não tive</t>
+  </si>
+  <si>
+    <t>@ifood ainda funciona esse cupom? #ifood https://t.co/mquyuieye2</t>
+  </si>
+  <si>
+    <t>estou aqui tentando me concentrar pra escrever um texto, porém, só penso nos picolés pardal que pedi no ifood 🍧 
+hoje eu estou com larica de 3 maconheiros</t>
+  </si>
+  <si>
+    <t>@ifood o pior é ter o ifood e não ter mais cupom! 😇</t>
+  </si>
+  <si>
+    <t>semana mal começou e já to falhando na vida fitness pq recebi um cupom do ifood tive que pedir um milkshake do mc 🙄🥺</t>
+  </si>
+  <si>
+    <t>@quemsabs @ifood alo @ifood tá trollando nois</t>
+  </si>
+  <si>
+    <t>@brandnewseason @ifood acho a vou pro ubereats mesmo</t>
+  </si>
+  <si>
+    <t>já faz duas horas que meu almoço devia ter chegado. sigo esperando resposta do @ifood ao meu pedido de ajuda!</t>
+  </si>
+  <si>
+    <t>super ansiosa p minha coxinha de morango que eu pedi no ifood chegar logo</t>
+  </si>
+  <si>
+    <t>faz 2 dias que to com vontade de tomar sorvete mas sem sair de casa, porém no ifood os lugares q eu gosto um n entrega e o outro derreteu os sorvete, to chorando e não é mentira</t>
+  </si>
+  <si>
+    <t>socorro que o maycon vai colocar os queijos dele pra vender no ifood e uber eats... vou comprar muito 😍😍😍 quero aquele provolone desidratado 🙏🏻</t>
+  </si>
+  <si>
+    <t>e o @ifood q fez cobrança indevida no sábado  e até agora n me respondeu?</t>
+  </si>
+  <si>
+    <t>3° vez q eu peço comida pelo ifood em frente ao restaurante só pra ter desconto, infelizmente os restaurantes não tinham opção de retirada... os entregadores me adoram kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>entra com fome no ifood pra ver se voce nao quer comprar tudo que tem la</t>
+  </si>
+  <si>
+    <t>eis que você faz seu primeiro pedido no @ifood com a promoção de 1 real o lanche, simplesmente ameei https://t.co/wydoktmwfi</t>
+  </si>
+  <si>
+    <t>@ifood @garotasemfio você foi notada haha haha, que demais.</t>
+  </si>
+  <si>
+    <t>não sei se essa foi a intenção dela, mas eu acho horrível vc demonizar empresas inovadoras como o uber, 99, ifood e entre outras, que dão oportudade das pessoas terem seu próprio dinheiro por causa do quanto a pessoa trabalha, afinal, ninguém é obrigado a fazer x horas. https://t.co/gr2ks0buzm</t>
+  </si>
+  <si>
+    <t>obrigada @ifood por permitir que eu tome um açaí por 3,90 nesse calorão</t>
+  </si>
+  <si>
+    <t>eu me sinto aquele estagiário do ifood todas as vezes que eu entro aqui</t>
+  </si>
+  <si>
+    <t>@dudaantonin @ifood você tem que falar que é amiga do namorado dele.</t>
+  </si>
+  <si>
+    <t>pedi um açai de 1l mais a taxa de entrega de 7 reais e to pagando 12 reais pelo meu açai. ahhh eu amo o ifood</t>
+  </si>
+  <si>
+    <t>rt @embustizinhas: só eu fico xingando os anúncios do youtube?
+anúncio: ifood
+eu: ifood é teu cu fdp</t>
+  </si>
+  <si>
+    <t>rt @larxvn: métodos pra economizar: desinstalei o uber e o ifood
+só esqueci que eu preciso de uber p voltar p casa e fiquei na rua hj</t>
+  </si>
+  <si>
+    <t>ifood pq nunca me dá cupom quando preciso</t>
+  </si>
+  <si>
+    <t>alguém tem cupom de ifood? kkkk</t>
+  </si>
+  <si>
+    <t>@luc4sandrey @ifood mlk tu é maluco na moral</t>
+  </si>
+  <si>
+    <t>pedi pamonha pelo ifood sera que presta</t>
+  </si>
+  <si>
+    <t>comprei um marmitao e um refrizao por 5 conto obg ifood te amo</t>
+  </si>
+  <si>
+    <t>minha preguiça é tanta, que tive que pedir comida no ifood kkkkkk</t>
+  </si>
+  <si>
+    <t>ifood qual é o seu problema??? me manda cupom caraio</t>
+  </si>
+  <si>
+    <t>ganhei um cupom do ifood e tive que pedir um croasonho, não me aguentei</t>
+  </si>
+  <si>
+    <t>e meu professor de história que parou a aula p eu pedir minha comida no ifood</t>
+  </si>
+  <si>
+    <t>a entrega do ifood é péssima toda vez atrasa p caralho q bosta</t>
+  </si>
+  <si>
+    <t>como o ifood fez uma animação lindona para a splashscreen https://t.co/zxasbq1dyb</t>
+  </si>
+  <si>
+    <t>a caixa é imprestavel mesmo, vou sair dessa porra e ir pr banco do brasil, meu cartão nao passa no ifood 🤬🤯</t>
+  </si>
+  <si>
+    <t>rt @tonzaojr3: @kaduuamo vou manda via ifood kk</t>
+  </si>
+  <si>
+    <t>rt @nadiardgs: uber
+netflix
+spotify
+rappi
+ifood
+todos trouxeram serviços antes muito mais caros ou muito menos disponíveis para a camada m…</t>
+  </si>
+  <si>
+    <t>@ifood ajuda ai, né... perdi o almoço. https://t.co/zzfcdpqtpm</t>
+  </si>
+  <si>
+    <t>o ifood tira sempre com a minha cara. não é possível.....</t>
+  </si>
+  <si>
+    <t>rt @taenaraf: não vejo a hora do ifood me patrocinar tbm, fé 🙏😂</t>
+  </si>
+  <si>
+    <t>me ajuda @ifood meus cupons não funcionam mais, tem 2 anos que eu uso cupons no meu endereço e agora isso!? pq? não quero ir pra outro app 🥺 https://t.co/l4hipseonh</t>
+  </si>
+  <si>
+    <t>essa cidade só tem açaí no ifood 🤦‍♀️</t>
+  </si>
+  <si>
+    <t>pedi uma coca cola no ifood, eu sou uma vergonha p mim msm</t>
+  </si>
+  <si>
+    <t>me mandam cupom de uber eats e eu vou usar pra q? aq tem nem ifood direito</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? o mosqueteiro e nós do @ifood vamos te ajudar! insira o cupom lucjgw8d7e e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/u2jdxarfou</t>
+  </si>
+  <si>
+    <t>pra que clicar no videozinho do youtube se não vou ver o comercial do ifood e cantar "ah ú" junto?</t>
+  </si>
+  <si>
+    <t>eu estou tentando ser uma pessoa positiva, mas perdi a hora do evento, minha sandália favorita arrebentou no meio da rua, fiquei trancada pro lado de fora e meu pedido do ifood veio errado com duas porções de arroz, pqqqqqqqqqq</t>
+  </si>
+  <si>
+    <t>rt @curtovcs: só eu que fico xingando os anúncios do youtube? 
+anúncio: ifood
+eu: ifood teu cu fdp</t>
+  </si>
+  <si>
+    <t>bora fortalecer o rolê da miga. marmitinhas congeladas delícia, feitas por mim mesmo. tem 21 opçoes essa semana, tem desde low carb a vegano. aceito vr, sodexo, td... 
+pode pedir pelo ifood tb. https://t.co/z2f08ixbum https://t.co/fjsvshukv2</t>
+  </si>
+  <si>
+    <t>@itswess @isclondone @ifood quase todo dia tem cupom pra quem usa cartão de crédito ;-;</t>
+  </si>
+  <si>
+    <t>eu pedi só um refrigerante numa lanchonete pelo ifood espero que eles não fiquem chateados comigo e coloquem um rato dentro</t>
+  </si>
+  <si>
+    <t>cupom de desconto rappi:
+gkz310126052
+ganhe r$150 em frete + r$30 para usar como quiser.  baixe o app e use o código: gkz310126052 https://t.co/t3ewys48ab #rappi #ifood #ubereats #pedeumrappi #tercadetremurasdv #tercou #afazenda11</t>
+  </si>
+  <si>
+    <t>@demitidodaapae @ifood porra sim fico muito puta</t>
+  </si>
+  <si>
+    <t>meu deus o ifood parece q me odeia toda vez q eu tento fazer pedido nessa merda nunca da certo</t>
+  </si>
+  <si>
+    <t>cupom de desconto rappi:
+gkz310126052
+ganhe r$150 em frete + r$30 para usar como quiser.  baixe o app e use o código: gkz310126052 https://t.co/luh4tb2pww #rappi #ifood #ubereats #pedeumrappi #tercadetremurasdv #tercou #afazenda11 #fsradiobrasil #balancogeral</t>
+  </si>
+  <si>
+    <t>@leon4ra @ifood se for pedir usa meu cupom</t>
+  </si>
+  <si>
+    <t>@ifood saudade daquele cupom que a gnt ainda não viveu.</t>
+  </si>
+  <si>
+    <t>só queria um cupom de 15 reais no ifood</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/zx75trilr6</t>
+  </si>
+  <si>
+    <t>eu recebo cupom do ifood 4x por dia sempre, todo dia... aiai eu amo um aplicativo</t>
+  </si>
+  <si>
+    <t>@ifood eu amo quando eu peço uma caralhada de coisa no teu aplicativo e só vem uma coisa de varias que pedi, parabéns</t>
+  </si>
+  <si>
+    <t>o que é pior 
+escolher um filme na netflix 
+escolher comida no ifood
+sociedade consumista pq me matastes</t>
+  </si>
+  <si>
+    <t>rt @lxcarvalho: nenhum antirracista e antigordofobico ta afim de me pagar um mc donalds no ifood? poxa</t>
+  </si>
+  <si>
+    <t>rt @criscarneiro: socorro maycon vai colocar os queijos dele pra vender no ifood</t>
+  </si>
+  <si>
+    <t>mais tarde vou fazer bom proveito desse meu cupom de desconto de 15 pau no ifood</t>
+  </si>
+  <si>
+    <t>quem vai pagar ifood p mim hj diz eu</t>
+  </si>
+  <si>
+    <t>eu vou tomar um açaí hoje sim, ifood me manda um cupom pelo amor de deus</t>
+  </si>
+  <si>
+    <t>rt @caksjdk: alguem me manda ifood por caridad</t>
+  </si>
+  <si>
+    <t>marmita g de churrasco por 6 reais 🥵🥵 ifood eu te considero d+ nego</t>
+  </si>
+  <si>
+    <t>os entregadores do ifood precisam me aceitar de pijamas de criança</t>
+  </si>
+  <si>
+    <t>mais uma vez o @ifood deixando na mão. agora eu te entendo @legadaodamassa</t>
+  </si>
+  <si>
+    <t>ifood me deu um cupom dev8 o açaí é 10 ia pagar 2 real, mas as porcaria dos negócios que vende açaí só aceita pedido a cima de 20, toma no meu cu</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -211,418 +661,26 @@
 picpay  
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb: 
-https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem!</t>
-  </si>
-  <si>
-    <t>@beelzebia aqueles que o ifood manda que sempre termina com cu
-não sei se tá mais em alta nas sempre rio disso</t>
-  </si>
-  <si>
-    <t>eu esperando meu almoço que comprei no ifood loop por 2,99 https://t.co/vy4di8ovsc</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? gabriella e nós do #ifood vamos te ajudar! insira o cupom 9spezk9wum e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/9o0ehvliwh</t>
-  </si>
-  <si>
-    <t>rt @messias0: @contreiras_gabi ele ta fazendo comercial do ifood</t>
-  </si>
-  <si>
-    <t>a porra do meu ifood não chega</t>
-  </si>
-  <si>
-    <t>pra que o @ifood me da um cupom pra restaurante selecionado mas não tem nenhum selecionado perto de mim? https://t.co/d3t8ruyjem</t>
-  </si>
-  <si>
-    <t>obrigada ifood por ouvir minhas preces e mandar cupom https://t.co/k0pxdrfwvj</t>
-  </si>
-  <si>
-    <t>ganhei desconto de 15 reias no ifood e pedi um marmitex que vem com refri e vou pagar o total de 3 reias kkkkkk</t>
-  </si>
-  <si>
-    <t>dia sem cupom é um dia triste, alô @ifood</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/ojdnpwadky</t>
-  </si>
-  <si>
-    <t>e mais uma vez falindo por causa do ifood</t>
-  </si>
-  <si>
-    <t>@mandellivaleria @juziuzi @ifood mano sim??? olha isso https://t.co/mkepptllz5</t>
-  </si>
-  <si>
-    <t>mano, tô na pista!! calor do caraai.. depois de bater minha meta no ifood, vou dar um mergulho no mar,  tirar a mazela do fds. rs</t>
-  </si>
-  <si>
-    <t>eu amo tanto receber cupom, pedi um almoço por 5 reais no ifood e minha carteira tá tão feliz quanto meu buchinho chei vai ficar</t>
-  </si>
-  <si>
-    <t>esses cupons de 15 reais do @ifood é a melhor coisa da vida</t>
-  </si>
-  <si>
-    <t>queria q alguém me oferecesse amor como o ifood me oferece cupom</t>
-  </si>
-  <si>
-    <t>acabei de almoçar e o ifood manda 3 msg pra mim de promoções :(</t>
-  </si>
-  <si>
-    <t>@nikfg07 @ifood da pra entrar pelo pc</t>
-  </si>
-  <si>
-    <t>@ifood vamo precisa duns 190 kibe e esfirra pro surubao</t>
-  </si>
-  <si>
-    <t>adoro quando o ifood tá com cupom de desconto</t>
-  </si>
-  <si>
-    <t>já acordei abrindo o ifood, não tô animada a fazer almoço hj</t>
-  </si>
-  <si>
-    <t>ah, e tem o ifood também</t>
-  </si>
-  <si>
-    <t>@tamilla8 @ifood eu reclamei dia 09 eles me responderam agora dia 17 imagina se eu ainda não tivesse indo pro concorrente ia tá agora só os ossos da caveira</t>
-  </si>
-  <si>
-    <t>[17/9 12:45] joão: aaaaaa tô feliz pq ganhei desconto e só paguei 9 reais no ifood, sou o louco dos descontos
-[17/9 12:46] joão: a minha primeira vez no uber por exemplo foi de graça
-cara eu amo um cupom</t>
-  </si>
-  <si>
-    <t>@mayarapolcani n tem ifood nos eua 😭😭 mas obg mana</t>
-  </si>
-  <si>
-    <t>metade da sala pediu comida no ifood por 1 real kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>eu me tornei quem eu mais temia... 
-a que gasta o dinheiro todo c ifood</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? wesley  frança e nós do #ifood vamos te ajudar! insira o cupom 27k5l1crv7 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/c6g3seo9yf</t>
-  </si>
-  <si>
-    <t>cupom de 15 conto no ifood viado top demais comer aquele hamburgao de noite</t>
-  </si>
-  <si>
-    <t>rt @marcusvisn: ifood sem cupom: r$4,00 a taxa de entrega 
-vem com piadinha ‘oi tem cu...rsrsrs...pom de 10 reais pra você’
-taxa de entre…</t>
-  </si>
-  <si>
-    <t>obrigada rappi credito e ifood pelos cupons😍😍😍😍😍</t>
-  </si>
-  <si>
-    <t>@luc4sandrey @ifood andrey nove hrs da manha?????</t>
-  </si>
-  <si>
-    <t>não vejo a hora do ifood me patrocinar tbm, fé 🙏😂</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? carlos lisboa e nós do #ifood vamos te ajudar! insira o cupom 7ujfmmszxj e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/t3voyeyr05</t>
-  </si>
-  <si>
-    <t>@ifood ganhei um cupom mas nao consigo usar</t>
-  </si>
-  <si>
-    <t>ôh @ifood o que adianta mandar cupom se não funciona??????? tô morrendo de fome https://t.co/irxcsl5qhm</t>
-  </si>
-  <si>
-    <t>rt @neryluc: abro o ifood e tem restaurante vendendo omelete por 30 reais 
-com trinta reais eu compro o carro do ovo inteiro, pô</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? lara e nós do #ifood vamos te ajudar! insira o cupom q47157la9r e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/335o6bdews</t>
-  </si>
-  <si>
-    <t>hj acordei tão de bom humor que estou até dançando a propaganda do ifood do youtube</t>
-  </si>
-  <si>
-    <t>@ifood me ajuda com o erro de cadastrar o cartão</t>
-  </si>
-  <si>
-    <t>a melhor invenção do @ifood foi o loop. comidinha gostosa e baraaata!</t>
-  </si>
-  <si>
-    <t>@ifood poderia liberar cupom de 8 reais pro estudante sem dinheiro, sabe?</t>
-  </si>
-  <si>
-    <t>@ifood ifood tive um problema pra finalizar a compra, pode me ajudar??</t>
-  </si>
-  <si>
-    <t>sinceramente, vou pedir um ifood</t>
-  </si>
-  <si>
-    <t>ifood já faz testes para fazer entregas usando drones https://t.co/czjhzb3iib</t>
-  </si>
-  <si>
-    <t>alo @ifood manda cupom</t>
-  </si>
-  <si>
-    <t>3 reais um almoço no ifood eu amo o capitalismo https://t.co/sc1vh3xhpz</t>
-  </si>
-  <si>
-    <t>queria baixar ifood, mas o medo de viciar e ficar falida kk</t>
-  </si>
-  <si>
-    <t>obrigado ifood por me permitir almoçar uma marmita chinesa por 2 reais</t>
-  </si>
-  <si>
-    <t>pedi ifood dentro da escola kkkk ninguem entendeu nada</t>
-  </si>
-  <si>
-    <t>abriu um japa la perto de casa no ifood que tem um combo de 80 conto...mas velho é tanta coisa mas tanta coisa que dessa vez nem to achando caro</t>
-  </si>
-  <si>
-    <t>cuponzin de $15 no ifood, chama no açaí da tarde! ~fazia mais de dias que não recebia um cupom~ @ifood que ta acontecendo ?</t>
-  </si>
-  <si>
-    <t>@0markness @hydratedgiusti @ifood o nosso tá zeradoooooo porra!</t>
-  </si>
-  <si>
-    <t>a fome bateu?
-use o código eats-tzsu264mue e ganhe r$5 de desconto nos primeiros 3 pedidos no #ubereats. https://t.co/f2kyylg3ig
-#cupom #desconto #almoco #comida #ifood #rappi #fome</t>
-  </si>
-  <si>
-    <t>@ifood me ligaram na mesma hora que fiz a reclamação e enviaram outros lanches! tudo certo.</t>
-  </si>
-  <si>
-    <t>pelo amor de deus ifood tóxico cadê meu cupom eu quero almoçar sushi</t>
-  </si>
-  <si>
-    <t>o entregador do ifood chegou aqui tirou a mochila do ombro e jogou a mochila de cabeça pra baixo na minha frente... quase que eu perguntei se ele tava carregando a mãe lá dentro pq putz</t>
-  </si>
-  <si>
-    <t>@ifood pelo amor de deus o entregador do meu loop tá a uma hora parado em frente o restaurante! eu tô desfalecendo de fome ifood.</t>
-  </si>
-  <si>
-    <t>falecida de fome e nada do ifood chegar</t>
-  </si>
-  <si>
-    <t>@ifood obrigado pelo cupom que não funciona 😭😭 https://t.co/edlihxgohg</t>
-  </si>
-  <si>
-    <t>so pq eu  nao to comendo bacon o ifood me deu cupom</t>
-  </si>
-  <si>
-    <t>@contreiras_gabi ele ta fazendo comercial do ifood</t>
-  </si>
-  <si>
-    <t>nome: ifood
-objetivo: fazer você pedir almoço 10:30 da manhã pra aproveitar cupom
-a marmitex já chegou e vai ficar lá no microondas esperando porque tá cedo d+</t>
-  </si>
-  <si>
-    <t>nossa @ifood que tamanho de bife. quase morro engasgado. https://t.co/jsrwahdmrq</t>
-  </si>
-  <si>
-    <t>a chacota de resposta do @ifood . obrigada, suas desculpas vão super melhorar a minha imagem manchada no escritório pelo escandalo que o entregador fez na recepcão do escritório. 
-é por isso que eu sou @rappibrasil prime. nunca me fizeram passar essa humilhação. https://t.co/0pekcoeqks</t>
-  </si>
-  <si>
-    <t>o cúmulo da preguiça é pedir vinho pelo ifood kkkkkkk</t>
-  </si>
-  <si>
-    <t>@ifood me ajuda, um amigo me chamou pra conhecer o app de vocês, mas o cupom dele não fubciona</t>
-  </si>
-  <si>
-    <t>eu adoro essas reportagens que passam na tv romantizando esses trampos tipo uber, ifood e etc. "ah mas tem liberdade, vc faz seu horário e tal", só não dizem que a pessoa trabalha 12 horas ou mais por dia para completar a renda e nem os riscos a saúde que isso acarreta ne.</t>
-  </si>
-  <si>
-    <t>só queria uma notificação do ifood dizendo que meu almoço saiu para entrega</t>
-  </si>
-  <si>
-    <t>@ifood me mandou cupom vou almoçar por 2,50 com coca 600 af te amo sabe</t>
-  </si>
-  <si>
-    <t>será q o rappi ifood ou ubereats, não querem me mandar um cupom de sei lá uns 50 reais</t>
-  </si>
-  <si>
-    <t>que 171 que vc e que so sobe comida no ifood?</t>
-  </si>
-  <si>
-    <t>@ifood me manda cupom de 8,00
-id: adolfo matias</t>
-  </si>
-  <si>
-    <t>@ifood ainda pedi pra minha vovózinha❤️❤️</t>
-  </si>
-  <si>
-    <t>finalmente o ifood mandou um cupom decente obrigada pelo mimo</t>
-  </si>
-  <si>
-    <t>nunca fiquei tão feliz por um cupom de desconto no ifood
-vai ter suco de melancia sim</t>
-  </si>
-  <si>
-    <t>@ifood to esperando @ifood sua resposta na dm</t>
-  </si>
-  <si>
-    <t>ifood deixou forte, pedi a comida por 3 reais aqui no trabalho 🤣😅</t>
-  </si>
-  <si>
-    <t>pedi um almoço por r$3 reais no ifood, meu dia ta feito</t>
-  </si>
-  <si>
-    <t>o ifood me obriga a engordar. https://t.co/qefbehglla</t>
-  </si>
-  <si>
-    <t>manda o cupom aí @ifood</t>
-  </si>
-  <si>
-    <t>ta doido não posso ver promoção de açai no ifood q to comprando</t>
-  </si>
-  <si>
-    <t>nunca mais recebi um cupom sequer do ifood ou uber eats https://t.co/9zuzwyy5u4</t>
-  </si>
-  <si>
-    <t>@ifood @liraf_ ajuda eu, não consigo mandar dm pra vocês</t>
-  </si>
-  <si>
-    <t>engordei uns 10kg graças ao ifood, tá foda esses últimos dias 🤦🏻‍♂️</t>
-  </si>
-  <si>
-    <t>comprei meu almoço com 3 reais 
-eu amo o ifood</t>
-  </si>
-  <si>
-    <t>ifood me salvando mais um dia, obg q todos que criaram o mesmo 😘</t>
-  </si>
-  <si>
-    <t>oi @ifood cadê meu cupom to c fome</t>
-  </si>
-  <si>
-    <t>queria usar a funcionalidade de retirada do ifood no temaki fry em frente ao estágio, mandaram cupom, funciona em 2 temaki fry menos nesse da frente aaaaaa</t>
-  </si>
-  <si>
-    <t>ifood hoje eu irei usar você até demaisssssss</t>
-  </si>
-  <si>
-    <t>f1 marcando o ifood e almoçar na lariquinha 🤤</t>
-  </si>
-  <si>
-    <t>que almoço top slc, 5 estrelas fácil no ifood</t>
-  </si>
-  <si>
-    <t>@ifood eu quero uma resposta e sou boa pra insistir @ifood</t>
-  </si>
-  <si>
-    <t>🍔🍟 #ifood | bateu aquela fome?
-🏷️ use o código » y4uyud49fq
-💵 ganhe r$10 de desconto na sua primeira compra pelo app.
-▼ app: https://t.co/jk3yh3iyp7
-🔁 compartilhe https://t.co/gpluh7bqk8</t>
-  </si>
-  <si>
-    <t>almoço saiu a 3$ hj no ifood hj mt bom 😋😂</t>
-  </si>
-  <si>
-    <t>na moral não sei pq o ifood coloca previsão de entrega se nunca é no horário que tá lá</t>
-  </si>
-  <si>
-    <t>ifood lança versão mais leve do aplicativo.
-#acontecendoaqui #ifood #aplicativo #maisleve
-https://t.co/vkoandgiag https://t.co/tlawqokofr</t>
-  </si>
-  <si>
-    <t>senti fome.
-pensei "estou com fome".
-o celular tocou, era uma notificação do ifood perguntando se eu estava com fome...
-esse fdp está na minha cabeça.</t>
-  </si>
-  <si>
-    <t>@ifood porra ifood kkkkkkk já comi uns 10 loop depois desse dia</t>
-  </si>
-  <si>
-    <t>ultimamente só ando usando o uber eats pôs ele me dá desconto e o ifood nunca mas tinha mandado quando é agora ele aparece🤔
-alguém tá se sentindo trocado https://t.co/w8bbpahulo</t>
-  </si>
-  <si>
-    <t>@ifood eu queria tanto um cuponzinho para alegrar meu dia !!</t>
-  </si>
-  <si>
-    <t>@2bmck eu pedi uma quentinha no ifood ontem p chegar hj na hora do almoço, o cara veio entregar fiquei ?????</t>
-  </si>
-  <si>
-    <t>vou desinstalar o ifood ele ainda não entendeu que estou de dieta e ignorando a existência dele</t>
-  </si>
-  <si>
-    <t>alguem tem cupom do ifood sem ser pra primeira compra?</t>
-  </si>
-  <si>
-    <t>valeu @ifood pelo almoço de 2,99</t>
-  </si>
-  <si>
-    <t>a partir de outubro, o @ifood fará entregas via drone. as operações e os primeiros testes começaram no @iguatemicamp. https://t.co/xacviqgh0l #folhadealphaville
-. https://t.co/yo19kyq9bl</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
 https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem.</t>
   </si>
   <si>
-    <t>os caras querem regular uber e ifood
-cambada de verme</t>
-  </si>
-  <si>
-    <t>e o atendimento do @ifood que é um lixo e ainda por cima não aceita feedback</t>
-  </si>
-  <si>
-    <t>@ifood pisou muito no cupom hoje lindos</t>
-  </si>
-  <si>
-    <t>joguei meu cupom de 15 real da primeira compra do ifood, e na hora de finalizar o pedido o restaurante tava fechado. desgraça</t>
-  </si>
-  <si>
-    <t>cadê meu cupom @ifood ?????
-tô com fomeeee !!</t>
-  </si>
-  <si>
-    <t>almocei gostoso e paguei apenas 3 reais obrigada @ifood</t>
-  </si>
-  <si>
-    <t>toda hora uma tentação diferente com o ifood mandando cupom</t>
-  </si>
-  <si>
-    <t>paguei dois reais no meu almoço ifood eu te amo</t>
-  </si>
-  <si>
-    <t>oi ifood me manda cupom hoje hoje eu quero</t>
-  </si>
-  <si>
-    <t>ifood deu um cupom topissimo de 15 reais hj e eu usei pra desconto em uma salada, to arrependida</t>
-  </si>
-  <si>
-    <t>vou ficar mais atento nesses cupons do ifood paguei 2,90 em um açaí de 18 conto, incluindo a entrega</t>
-  </si>
-  <si>
-    <t>hoje tomara que o ifood das pankecas fique  fechado ,ubereats tb rappi trave hoje</t>
-  </si>
-  <si>
-    <t>@ammyteixeira aquele cupom de desconto do ifood...</t>
-  </si>
-  <si>
-    <t>ifood pq me oferece comida barata se expira tudo depois de 1 minuto fdp</t>
+    <t>misericórdia, @ifood eu quero uma dessa https://t.co/bqzm5foo6n</t>
+  </si>
+  <si>
+    <t>morrendo de fome e o @ifood  com problema nos cupons</t>
+  </si>
+  <si>
+    <t>cupom de desconto #
+peguem aí o cupom 😉
+rappi : qip34757000 - 150$ em frete grátis 
+ifood : sx2uc3g1q9 - 15$ de desconto 
+uber eats : eats-djd1em - 6$ de desconto</t>
+  </si>
+  <si>
+    <t>@rbiaxxf @ifood nossa....</t>
+  </si>
+  <si>
+    <t>quase 9 meses com o lucas e ele ainda não entendeu que eu amo mandar ifood/ubereats pra ele</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -633,285 +691,37 @@
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/wynkzhz4ij</t>
-  </si>
-  <si>
-    <t>ai, amo quando ifood manda uns cupons que presta!!</t>
-  </si>
-  <si>
-    <t>uma ansiedade insuportável chamada "falar no telefone com estranhos"
-graças a deus inventaram @ifood e @ubereats_br , se não jamais pediria pizza https://t.co/jyiissjs9q</t>
-  </si>
-  <si>
-    <t>eu sempre uso o @ifood e fui inventar de usar o @rappibrasil que 💩 de app, meu almoço está quase uma hora atrasado e eu não consigo cancelar porque já paguei pelo cartão e a atendente do restaurante me enrolando dizendo que tá chegando 😡😡😡</t>
-  </si>
-  <si>
-    <t>caramba @ifood eu só queria concluir meu pedido 🤬🤬🤬🤬 q q tá acontecendo https://t.co/mafldvgvk5</t>
-  </si>
-  <si>
-    <t>o ifood parece q sente qnd eu falo q não vou mais gastar em lanches</t>
-  </si>
-  <si>
-    <t>cupom de r$ 15 na primeira compra no ifood - ecjrcmk41y</t>
-  </si>
-  <si>
-    <t>@junior7elias @ifood nem lá tá funcionando pra vc ter uma ideia. tô sem atendimento disso a 4 dias e contando. inclusive no reclame aqui</t>
-  </si>
-  <si>
-    <t>rt @mmaethe: r$15 conto de desconto no ifood no primeiro pedido, usa o código da amiga aqui yg2yx2x6v1</t>
-  </si>
-  <si>
-    <t>@ifood @jeixca a pergunta deveria ser ''você já morreu de fome, jéssica?''</t>
-  </si>
-  <si>
-    <t>e o entregador do ifood que veio aqui com a camisa do flamengo.
-eu da minha sala comecei a cantar o hino e mostrar minha mochila pra ele.
-parceirasso já.</t>
-  </si>
-  <si>
-    <t>@ifood to esperando mandar pra mim tbm @ifood</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/2iuhd9urya</t>
-  </si>
-  <si>
-    <t>rt @gipsysailor: "tinder lanches"
-até o ifood tá me dando indireta.</t>
-  </si>
-  <si>
-    <t>rt @taenaraf: não vejo a hora do ifood me patrocinar tbm, fé 🙏😂</t>
-  </si>
-  <si>
-    <t>tô cheia de fome ifood tá demorando pra clr</t>
-  </si>
-  <si>
-    <t>desgraça de ifood patrocina todo mundo e eu não que bucetaaa https://t.co/23ctdwq6yg</t>
-  </si>
-  <si>
-    <t>@ifood preciso duns 100 kibe</t>
-  </si>
-  <si>
-    <t>@ifood relatei uma reclamação por um problema ao tentar fazer um pedidi pelo app. fiz a reclamação no dia 15/09 e ate presente momento ninguem do ifood me respondeu.</t>
-  </si>
-  <si>
-    <t>acabei de pedir 2 empadão de frango por 3 reais muito obrigado ifood</t>
-  </si>
-  <si>
-    <t>@silviotums @ifood acabei de pedir um por 5, com direito a suco ainda. @ifood te amamos</t>
-  </si>
-  <si>
-    <t>olha que terça linda! pra ela ficar mais linda ainda, só com uma delícias da luke cafeteria! #vempraluke
-rua são cristóvão, 516 lojas qr
-ou pede que a gente entrega #ifood ubereats</t>
-  </si>
-  <si>
-    <t>o ifood me deu um cupom de 15 reais, amo</t>
-  </si>
-  <si>
-    <t>já disse que amo os cupons do ifood?</t>
-  </si>
-  <si>
-    <t>"tinder lanches"
-até o ifood tá me dando indireta.</t>
-  </si>
-  <si>
-    <t>rt @caarolkoene: cupom do ifood de 15 reais essas horas é muita tentação</t>
-  </si>
-  <si>
-    <t>paguei uma marmita pelo ifood 10 conto e n cobra entrega, amém</t>
-  </si>
-  <si>
-    <t>pqp, tava conversando com um colega, ele perguntou para mim se ta corrido e eu disse que sim, ai 1 minuto depois eu recebo um cupon do ifood escrito ta corrido né?...</t>
-  </si>
-  <si>
-    <t>hoje é um dos dias mais difíceis, mas pelo menos fui exaltada com um cupom no ifood e to pagando treixxx reaixxx numa parmegiana</t>
-  </si>
-  <si>
-    <t>rt @igortmilhos: ifood e rappi compraram o youtube não é possível</t>
-  </si>
-  <si>
-    <t>@ifood vai responder nao @ifood?</t>
-  </si>
-  <si>
-    <t>o @ifood da um cupom para restaurantes selecionados e os restaurantes da lista tão todos fechados agora...........</t>
-  </si>
-  <si>
-    <t>rt @nadiardgs: uber
-netflix
-spotify
-rappi
-ifood
-todos trouxeram serviços antes muito mais caros ou muito menos disponíveis para a camada m…</t>
-  </si>
-  <si>
-    <t>passando pelos piores dias do mês eu penso: seria tão bom se a notificação de “você não está grávida” chegasse no nosso celular igual cupom do ifood 💁🏽‍♀️</t>
-  </si>
-  <si>
-    <t>sorte do dia: ganhar um cupom do ifood e pagar 5 reais no strogonoff de filé mignon com champignon e uma coca bem gelada 🥰🥰</t>
-  </si>
-  <si>
-    <t>@lobo_lirio sei lá, não sei usar ifood</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? anderson e nós do #ifood vamos te ajudar! insira o cupom gz3wqgagwu e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/5jyrmebnm6</t>
-  </si>
-  <si>
-    <t>estou prestes a pagar 21 reais num mexido!!! o ifood está acabando com a minha vida https://t.co/ubg9zuxdfp</t>
-  </si>
-  <si>
-    <t>@quemsabs @ifood daqui 15 dias eles te respondem.</t>
-  </si>
-  <si>
-    <t>@imelqui se era pra ser assim, então pq cuidou tão bem de mim??? @ifood</t>
-  </si>
-  <si>
-    <t>rt @alisonpinto_: pedi uma coisinha no ifood e o, os motoboy são muito pelo corre certo, chovendo pra crl eles no corre.... peguei meu rang…</t>
-  </si>
-  <si>
-    <t>ifood disponibiliza versão 'lite' do app para usuários. https://t.co/yheagsvifx #tánoleiajá https://t.co/ckda3w8iag</t>
-  </si>
-  <si>
-    <t>pedi uma quentinha bem saudável por 12 conto no ifood e ainda vai vir com suco 😭🙏</t>
-  </si>
-  <si>
-    <t>agendei meu primeiro loop do ifood pra hoje, vamo ver qualequié</t>
-  </si>
-  <si>
-    <t>amigos, espero que vocês nunca precisem de assistencia do @ifood porque eles não respondem nenhum e-mail que a gente envia</t>
-  </si>
-  <si>
-    <t>@ifood, fiz um chamado no atendimento de vocês dia 09 ou 10, até então não obtive resposta, minhajuuudaa?</t>
-  </si>
-  <si>
-    <t>1lt de açaí por 4,80 obg ifood nunca critiquei</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? nadine e nós do #ifood vamos te ajudar! insira o cupom wsgjaycv9r e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/zvfk8whjoo</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? igor e nós do #ifood vamos te ajudar! insira o cupom jau8tt7et3 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/kouy3wybf7</t>
-  </si>
-  <si>
-    <t>argh tive q adicionar um guaracamp no pedido da quentinha pra dar o valor mínimo do restaurante com o cupom no ifood podia ter pago $2 mas paguei $4</t>
-  </si>
-  <si>
-    <t>ifood me deu um cupom de 15 reais nunca critiquei</t>
-  </si>
-  <si>
-    <t>@iza_ocarvalho pedir no ifood pelo cartão é um caminho sem volta</t>
-  </si>
-  <si>
-    <t>ifood cadê meu almoçoooo</t>
-  </si>
-  <si>
-    <t>a pessoa dos cupons do ifood deve estar muito feliz pois finalmente usei um pra almoçar</t>
-  </si>
-  <si>
-    <t>quero agradecer a @ifood pela promoção que ganhei de 15 reais maravilha quero ganhar mais pra pode usar sempre melhor que o @ubereats_br que promoção boa faz tempo que não tem não quero entrega quero ganhar desconto usava bastante hoje em dia só no ifood tá com promoção melhor</t>
-  </si>
-  <si>
-    <t>@laholiva @mandellivaleria @ifood aparentemente o ifood em brasilia eh uma bosta</t>
-  </si>
-  <si>
-    <t>oii @ifood  sumido, sdds dos seus cupons inclusive tô com vontade de tomar um açaí #mandamimos</t>
-  </si>
-  <si>
-    <t>@ifood e ai, quando vao resolver meu problema?</t>
-  </si>
-  <si>
-    <t>ifood salvou meu almoço hj 🙌</t>
-  </si>
-  <si>
-    <t>ifood é o capeta dos pobres</t>
-  </si>
-  <si>
-    <t>rt @macacodaufg: ganhei um cupom do @ifood // pedido mínimo de um salário mínimo https://t.co/tlipf6jsgg</t>
-  </si>
-  <si>
-    <t>ifood patrocinou o açaí</t>
-  </si>
-  <si>
-    <t>@haltdawg tentou, eles deram a justificativa que faliram por conta de ifood e rappi sendo que tipo, com ctz não haushshsbs</t>
-  </si>
-  <si>
-    <t>@mndsths @ifood manda cupom ifood, minha diabetes tá controladinha! https://t.co/xfxuqktxw7</t>
-  </si>
-  <si>
-    <t>hoje eu só almoço se o @ifood me liberar um cupom, pq a grana evaporou com este calor de 30ºc</t>
-  </si>
-  <si>
-    <t>@ifood me ajuda a descobrir o nome do meu crush</t>
-  </si>
-  <si>
-    <t>queria só um cupom bom do ifood</t>
-  </si>
-  <si>
-    <t>@gtormento1 @ifood tu tava certa do kiwi tava pausado despausei pode pedir</t>
-  </si>
-  <si>
-    <t>ai ifood me deu um desconto que a comida só sai por 2,99 carai ta mais barato que o bandejao da facul</t>
-  </si>
-  <si>
-    <t>@casagranderudi até pq como eu vou pedir comida no ifood sem internet? hahahah</t>
-  </si>
-  <si>
-    <t>rt @_dxdxxxx: desgraça de ifood patrocina todo mundo e eu não que bucetaaa https://t.co/23ctdwq6yg</t>
-  </si>
-  <si>
-    <t>obg ifood por sempre patriocinar nas quentinhas de 2reais</t>
-  </si>
-  <si>
-    <t>@guszr_ eu ganho um todo dia, do ifood e do rappi. do uber eats tbm</t>
-  </si>
-  <si>
-    <t>gastei um total de 5 reais no almoço, obrigada ifood</t>
-  </si>
-  <si>
-    <t>@euphriawrld pera n da pra eu compra pelo ifood to block</t>
-  </si>
-  <si>
-    <t>@ifood @borntoetc e a minha dm @ifood ???</t>
-  </si>
-  <si>
-    <t>te amo por esse cupom de 15 reais @ifood</t>
-  </si>
-  <si>
-    <t>só pq hj ia pedir algo no ifood ele não me manda cupom 🥺</t>
-  </si>
-  <si>
-    <t>@helenaluz___ @pornfood18 amiga, pede um ifood kkk essas horas deve estar aberto neam 🌚</t>
-  </si>
-  <si>
-    <t>felicidade do dia: minha corrida no uber deu 10 centavos e meu almoço no ifood 2,00</t>
-  </si>
-  <si>
-    <t>consegui uma porção d batata no ifood por 2,50</t>
-  </si>
-  <si>
-    <t>o ifood me empoderou com cupom pra eu almoçar um subwayzão quando ninguém ao menos tentou 😔🙏🏻</t>
-  </si>
-  <si>
-    <t>pedir comida no @ifood com cupom de desconto é um caminho sem volta.</t>
-  </si>
-  <si>
-    <t>pedi 10 hot e um yakisoba 😋😋 obg @ifood</t>
-  </si>
-  <si>
-    <t>queria comprar comida no @ifood mas só tem pagamento pelo cartão</t>
-  </si>
-  <si>
-    <t>ifood manda 15,00 de cupom mas não adianta nada pq o pedido mínimo dos restaurantes com frete grátis é 32,00 kkkk mil vezes o rappi</t>
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/2kpqqcsamp</t>
+  </si>
+  <si>
+    <t>acabei de comer de graça, ifood é vida</t>
+  </si>
+  <si>
+    <t>@daddygreg1245 me paga um ifood aí então brother</t>
+  </si>
+  <si>
+    <t>@zerooitocinco @ifood oi, to já chegando ai no seu setor, bjss</t>
+  </si>
+  <si>
+    <t>e o mc donalds agora que tá no ifood</t>
+  </si>
+  <si>
+    <t>ganhei cupom no ifood e pedi sacolé gourmet pra mim e pras meninas</t>
+  </si>
+  <si>
+    <t>gente, alguém já teve problema com o ifood? o que vcs fizeram? eles marcaram uma entrega minha como feita e não trouxeram! estou tentando contato com eles há mais de 2h e estou sendo completamente ignorada! ninguém me responde... — feeling frustrated</t>
+  </si>
+  <si>
+    <t>não acredito que vi um cara do ifood empinando a moto</t>
+  </si>
+  <si>
+    <t>pq q eu só recebo cupom no ifood e aiqfome qnd eu n vou pedir nada ein 🧐 qnd eu tô a busca de cupom nunca aparece</t>
+  </si>
+  <si>
+    <t>o dia que eu fui afrontoso com o @ifood https://t.co/o3a1h7paat</t>
+  </si>
+  <si>
+    <t>obrigada rappi e ifood pelo patrocínio https://t.co/uqydhqy19w</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -922,511 +732,357 @@
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/62dsxrimwc</t>
-  </si>
-  <si>
-    <t>oq houve ifood? vc tá meio sumida ultimamente... nunca mais me enviou cupom...
-aconteceu alguma coisa?</t>
-  </si>
-  <si>
-    <t>mano vsf antes eu pedia comida no ifood dava 12 reais ai eu usava o cupom de 10 pgava so 2 agora essa merda ta com frescura de pedido minimo??? q porra eh essa</t>
-  </si>
-  <si>
-    <t>@ifood pq me abandonastes????? mimou tanto com cupom de manhã, tarde e noite e agora nenhum, nada, nothing.</t>
-  </si>
-  <si>
-    <t>@ifood por falta de cupom de 8 reais
-adolfo matias</t>
-  </si>
-  <si>
-    <t>acordar com um cupom de desconto do ifood é pedir p ser feliz o resto do dia</t>
-  </si>
-  <si>
-    <t>eu morrendo de fome e o restaurante do ifood nem preparou meu prato ainda</t>
-  </si>
-  <si>
-    <t>alguém já pediu essa marmita loop  pelo ifood??? to sem coragem</t>
-  </si>
-  <si>
-    <t>ifood disponibiliza versão mais leve do aplicativo para android https://t.co/ndonofrbna https://t.co/hs7166pun2</t>
-  </si>
-  <si>
-    <t>alo @ifood eu quero meu dinheiro de volta...</t>
-  </si>
-  <si>
-    <t>@ifood vcs tão empenhados em me impedir de usar cupom, hein</t>
-  </si>
-  <si>
-    <t>minha situação é a seguinte: 
--estou de férias.
--sozinho em casa, a mulher só larga 21h 
--em jejum ainda até essa hora
--zero coragem de levantar pra fazer comida
--zero condições de pedir um ifood
--minha mãe mora há 19km de distancia
-vou morrer de fome.</t>
-  </si>
-  <si>
-    <t>almocei um rango muito delícia e paguei só r$2,99 no @ifood .</t>
-  </si>
-  <si>
-    <t>alguém me manda cupom de ifood</t>
-  </si>
-  <si>
-    <t>eu amo uma empresa é o nome dela é @ifood cupom salvo de maiss</t>
-  </si>
-  <si>
-    <t>não sei o que eu seria sem uber e ifood</t>
-  </si>
-  <si>
-    <t>o zz ifood é vida kkk 😋😋😂</t>
-  </si>
-  <si>
-    <t>escolhas? a minha única opção é ficar com fome, já que não recebi mais cupom @ifood https://t.co/qewvywlua1</t>
-  </si>
-  <si>
-    <t>só queria um cupom do @ifood agora</t>
-  </si>
-  <si>
-    <t>alguém manda um ifood aqui pra mim no trampo</t>
-  </si>
-  <si>
-    <t>@pontofrio o povo acha que o pin é @ifood, só pede cupom. feliz aniversário, pin!!! felicidades. 🤣</t>
-  </si>
-  <si>
-    <t>depois de ter sido humilhada muitas vezes pelo ifood por não conseguir usar os cupons, hj foi o dia de ser exaltada conseguindo almoçar por r$ 3,5</t>
-  </si>
-  <si>
-    <t>ifood manda cupom para eu comprar 20 esfira por 5 conto</t>
-  </si>
-  <si>
-    <t>que tipo de sacrifício humano eu preciso executar pra pedir meu almoço, @ifood ? https://t.co/3ara9d3l7d</t>
-  </si>
-  <si>
-    <t>até o ifood sabe que o meu dia tá corrido https://t.co/lszgwpac2l</t>
-  </si>
-  <si>
-    <t>rt @4h47_: eu me tornei quem eu mais temia... 
-a que gasta o dinheiro todo c ifood</t>
-  </si>
-  <si>
-    <t>morrendo de preguiça de cozinhar e tendo que resistir aos cupons do ifood https://t.co/lpsotcppxu</t>
-  </si>
-  <si>
-    <t>pedi um ifood pq esqueci de tirar a carne do congelador novamente</t>
-  </si>
-  <si>
-    <t>alguém sabe algume famose que tem desconto no ifood???</t>
-  </si>
-  <si>
-    <t>vsf ifood krl deixa eu comprar a porra do lanche https://t.co/ypbbm6eb67</t>
-  </si>
-  <si>
-    <t>pensando seriamente em pedir um açaí pelo ifood mais tarde!</t>
-  </si>
-  <si>
-    <t>esses cupons do ifood não valem nada</t>
-  </si>
-  <si>
-    <t>do nada o ifood me oferecendo almoço por 2,99 agora sim um desconto q cabe no meu orçamento</t>
-  </si>
-  <si>
-    <t>@ifood me mandaram um cupom de 15 reais pra primeira compra pela notificação mas quando abri o app não tinha nada lá:/</t>
-  </si>
-  <si>
-    <t>nem fui pra casa almoçar hj pq sei q ia sofrer mto p voltar do consultório com esse tempooo perfeito p ficar em casa.. pedi @ifood p comer aqui mesmo</t>
-  </si>
-  <si>
-    <t>ganhei cupom de 20r$ do ifood esse momento é meu</t>
-  </si>
-  <si>
-    <t>poxa @ifood saudades dos cupons que a gente já viveu :(</t>
-  </si>
-  <si>
-    <t>pedir comida no ifood é bom, mas fazer almoço em casa saudável com o nosso tempero é melhor ainda.</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/nlfewkk24i</t>
-  </si>
-  <si>
-    <t>@juziuzi @ifood o bom dessa promo do ifood eh ver cedinho.. comprei strogonoff por 10,00 umas 10h</t>
-  </si>
-  <si>
-    <t>acabei de ver um entregador do ifood saindo no grau, quase que a caixa de comida arrasta no chão akskakksks</t>
-  </si>
-  <si>
-    <t>é só o meu ifood que não tá aceitando cupom de 15$ ou o de vocês também? @ifood ajuda nois</t>
-  </si>
-  <si>
-    <t>terça feira e eu acabei de pedir um x-tudo pro almoço pelo ifood, eu com certeza já perdi o controle da minha vida</t>
-  </si>
-  <si>
-    <t>@ifood qual é o seu problema em fornecer um cupom e quando vai pedir não deixa porque o restaurante não faz parte da promoção, custa colocar quais restaurantes fazem parte?</t>
-  </si>
-  <si>
-    <t>@mspeekoni @ifood enquanto isso o motoboy ta comendo minha comida felizão com meu dinheiro o/</t>
-  </si>
-  <si>
-    <t>ifood ladrão do caralhp vai dar desconto pro inferno capeta</t>
-  </si>
-  <si>
-    <t>@ifood  me da cupom todo dia kkkkkkk assim ru viro obesa mórbida</t>
-  </si>
-  <si>
-    <t>eai! @ifood pedi um loop hoje. o entregador marcou como entregue mas nem passou pela porta. como proceder?</t>
-  </si>
-  <si>
-    <t>@drgntr1 ifood tem alguma implicância cmg, não é possível</t>
-  </si>
-  <si>
-    <t>@perrygosa_ como assim trabalhando de moto ??? ta fazendo ifood é? kk</t>
-  </si>
-  <si>
-    <t>@lorisslene domingo eu paguei 25 reais numa comida que tava bem ruim. chorei de raiva. no ifood tbm. 😒</t>
-  </si>
-  <si>
-    <t>que raiva do @ifood, me mandam todo o dia um cupom e hoje que eu preciso não mandaram</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/8pcfwsvm7x</t>
-  </si>
-  <si>
-    <t>quando eu preciso vc nao me da @ifood</t>
-  </si>
-  <si>
-    <t>almoço por 2 reais, @ifood vc quando da cupom é a perfeição</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? thamy e nós do #ifood vamos te ajudar! insira o cupom 7wneg6y934 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/edvgc24mry</t>
-  </si>
-  <si>
-    <t>@anajuliapitos incrivel, brigada
-pesquisei no tt cupom ifood achei seu tweet maravilhoso pq meu almoço foi de 29 pra 14 reais 🙃🙃🙃 paz no seu coração que deus lhe abençoe</t>
-  </si>
-  <si>
-    <t>almoço + suco del valle no la mole, por 13,50 é pra glorificar de pé!
-eu amo os cupons do @ifood</t>
-  </si>
-  <si>
-    <t>@ifood me dá um ticket pfvr tem 2 semanas q to semm</t>
-  </si>
-  <si>
-    <t>@rafaellcf é o cupom que o ifood liberou carai</t>
-  </si>
-  <si>
-    <t>algum ser aq tem desconto no ifood???????</t>
-  </si>
-  <si>
-    <t>@jeixca @hydratedgiusti @ifood e o nosso, como tá?
-manda na dm.
-hahahahahahahah</t>
-  </si>
-  <si>
-    <t>agora que lembrei que ontem comprei duas cervejas puro malte pelo ifood no cupom promocional, porra os cara me deram cupom de 15 reais e a conta deu r$18,00 ou seja paguei r$3,00 reais auhsuahsu detalhe: eu só tinha r$5 pilas e tava olhando o ifood só por olhar mesmo kkk</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? jesonias e nós do #ifood vamos te ajudar! insira o cupom pg6ctk4b7t e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/srugciclor</t>
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/xoflgut9tt</t>
+  </si>
+  <si>
+    <t>@ifood me dá um cupom, quero um açaí e sou só uma estagiária</t>
+  </si>
+  <si>
+    <t>3 da tarde e eu pedindo nhoque no ifood pq ta 12 reais....</t>
+  </si>
+  <si>
+    <t>@anatavares2002 pelo @ifood  amiga, estava com cupom</t>
+  </si>
+  <si>
+    <t>oi @ifood  me da cupom</t>
+  </si>
+  <si>
+    <t>ainda mais pq to com um cupom foda no ifood uahsua</t>
+  </si>
+  <si>
+    <t>obrigado @ifood pelos mimos por apenas 8 reais https://t.co/tuiini3lb4</t>
+  </si>
+  <si>
+    <t>tô tão triste, só queria um cupom de desconto do @ifood :/</t>
+  </si>
+  <si>
+    <t>@ifood oferta onde ? esse negócio de fazer 3 pedidos para ganhar um cupom de 30 que é cheio de regras não da dona @ifood ... ajuda ai. https://t.co/p9m32kt1ja</t>
+  </si>
+  <si>
+    <t>po essa vontade de pedir algo por causa do cupom do ifood é foda</t>
+  </si>
+  <si>
+    <t>nevaska no ifood aí pai</t>
+  </si>
+  <si>
+    <t>@princesapeixes @ifood que isso</t>
+  </si>
+  <si>
+    <t>rt @alisonpinto_: pedi uma coisinha no ifood e o, os motoboy são muito pelo corre certo, chovendo pra crl eles no corre.... peguei meu rang…</t>
+  </si>
+  <si>
+    <t>yu6p5jn1d8 usem meu código no ifood vcs ganham 15 reais na sua primeira compra no app #ifood #afazenda11 #vemaiafazenda #codigosifood #followtrick</t>
+  </si>
+  <si>
+    <t>se alguém tiver cupom de desconto pra ifood e ubereats primeira compra eu agradeço muito</t>
+  </si>
+  <si>
+    <t>baixei o ifood pra pedir um almoço pra tati e não sei cole do primeiro pedido, sei que saiu 1 real o almoço 🤣🤣</t>
+  </si>
+  <si>
+    <t>acho q o ifood se sustenta uns 5 anos só comigo essas duas semanas</t>
+  </si>
+  <si>
+    <t>correios ta segurando meu corta vento do ifood que eu comprei semana passada palhaçada eh essa</t>
+  </si>
+  <si>
+    <t>olha que maravilha o queijo do ms agora vai está no ifood pra quem quiser comprar, pede o queijo no ifood 🧀😋😋👏👏👏👏 https://t.co/jq8z5sswka</t>
+  </si>
+  <si>
+    <t>queria parabenizar o @ifood pelo incrível desconto, e vou almoçar muito bem e barato. 
+infelizmente o que eu gosto que é o @ubereats não corresponde o proletariado com bons descontos.</t>
+  </si>
+  <si>
+    <t>@jiminkfuck tem nada disso aí, nem ifood, mais graças a deus fica uns 48 min de araraquara e da pra eu fazer umas compras sabe</t>
+  </si>
+  <si>
+    <t>eu nao entendo pq o @ifood tem a opção de manda mensagem no  pedindo ajuda se nem responder eles respondem, pelo tt pior ainda pqp eu só queria um uber eats</t>
+  </si>
+  <si>
+    <t>@ifood @ifood @ifood @ifood eu não aguento mais não conseguir fazer meu pedido! e vcs não me respondem</t>
+  </si>
+  <si>
+    <t>pedi um subway furioso no ifood vou me lava comendo</t>
+  </si>
+  <si>
+    <t>ifood entregará comida com drones em outubro https://t.co/a9td5kk6hh https://t.co/gvhosqmp2c</t>
+  </si>
+  <si>
+    <t>rt @faveiaprincess: ifood: vc tem $15 de desconto pra usar no seu almoço em restaurantes selecionados 
+restaurantes selecionados: https://…</t>
+  </si>
+  <si>
+    <t>acabei de pedir um hambúrguer por 3 reais, já falei que te amo hoje @ifood ?</t>
+  </si>
+  <si>
+    <t>@marthamartins_ chupa ifood até o próximo cupom chegar kkkkkk</t>
+  </si>
+  <si>
+    <t>cupom de desconto 
+rappi : qip34757000 - 150$ em frete grátis 
+ifood : sx2uc3g1q9 - 15$ de desconto 
+uber eats : eats-djd1em - 6$ de desconto
+#rappi #rappicreditos  
+#ifood #cupomifood #cupom #cupomrappi #ubereats</t>
+  </si>
+  <si>
+    <t>peguei ranço do ifood só por causa desses anúncios chatos deles no youtube</t>
+  </si>
+  <si>
+    <t>1 hora de atraso na minha comida que pedi no ifood, 1 horaaaa 🤬</t>
+  </si>
+  <si>
+    <t>1 litro de açaí por 4 reais
+obrigado @ifood</t>
+  </si>
+  <si>
+    <t>nenhum antirracista e antigordofobico ta afim de me pagar um mc donalds no ifood? poxa</t>
+  </si>
+  <si>
+    <t>já agendei meu almoço de amanhã, obg loop do ifood</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood e o refri as vezes é o diferencial ne</t>
+  </si>
+  <si>
+    <t>ow @ifood minha irma pediu um loop que não chegou e foi dado como entregue. como que faz????! fica por isso mesmo???? tem que rever esse loop aí, heim!!!!!!!! https://t.co/q6jegskc3s</t>
+  </si>
+  <si>
+    <t>consegui usar meu cupom de desconto do ifood eu to muito feliz obrigada deus</t>
+  </si>
+  <si>
+    <t>para não falar da impossibilidade de ser atendido por telefone pela empresa, quando se é cliente. bem decepcionada mesmo, @ifood ! https://t.co/al4vouzz4w</t>
+  </si>
+  <si>
+    <t>@ifood cada dia me fodendo de um jeito diferente
+meu pedido veio errado me responde pfvr enois</t>
+  </si>
+  <si>
+    <t>tô de regime 🙏🏽🥵😎🙄
+ifood: toma aqui um cupom de 15 reais pra comprar uma pizza gigante 🤪😭😍😚🥰😱</t>
+  </si>
+  <si>
+    <t>será que se eu pedir um mc flurry pelo ifood ele chega vivo?</t>
+  </si>
+  <si>
+    <t>@isi_xx como assim tu ta usando ifood? choque</t>
+  </si>
+  <si>
+    <t>então quer dizer que o maycon vai colocar os queijos pra vender no @ifood , já vou pedir o meu com o cupom de desconto de certa pessoa 👀😜🤭</t>
+  </si>
+  <si>
+    <t>@danrleynp @ifood já acabou mor 😕 kkkk</t>
+  </si>
+  <si>
+    <t>@kaduuamo vou manda via ifood kk</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
 rappi:
-gkz310126052 - 30 reais + 150 em frete. 
+gkz310126052 - 30 reais + 150 em frete
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem https://t.co/ciphexywgd</t>
-  </si>
-  <si>
-    <t>acabei de pedir um frango grelhado com salada por apenas 1 real, ifood eu te amo</t>
-  </si>
-  <si>
-    <t>nem tava com vontade e o ifood me manda um cuponzão de 15 conto
-tive que pedir um açaí</t>
+https://t.co/aip13qrw3w -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/iwi8lf6yzt</t>
+  </si>
+  <si>
+    <t>aí @ifood pq me mandas cupomzin de desconto sendo que aqui só 5 restaurantes aceitam 😭</t>
+  </si>
+  <si>
+    <t>rt @apoioclaudial: a partir de agora os queijos da donpringler vão ser vendidos no ifood e demais app, noticia boa 🧀💪🏻 https://t.co/26fpjqc…</t>
+  </si>
+  <si>
+    <t>poxa ifood só comida com carne p almoço :(</t>
+  </si>
+  <si>
+    <t>@ifood preciso falar com vocês urgente</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
 rappi:
-gkz310126052 - 30 reais + 150 em frete. 
+gkz310126052 - 30 reais + 150 em frete
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem!</t>
-  </si>
-  <si>
-    <t>@ifood queria tanto um cuponzin</t>
-  </si>
-  <si>
-    <t>a felicidade da pessoa que só pagou 3 reaix no almoço de hj :d vlw @ifood https://t.co/pxxf1yqpbs</t>
-  </si>
-  <si>
-    <t>está sendo uma tortura receber cupom do ifood, abrir o aplicativo toda empolgada, e perceber que o cupom não é válido para o restaurante</t>
-  </si>
-  <si>
-    <t>pedi logo um ifood pra mim e pro jr</t>
-  </si>
-  <si>
-    <t>eu pedindo marmita no ifood hoje completamente sequelada se tivesse opção de avaliar o cliente no app eu ia receber -1 de nota kkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>nunca vou entender esse lixo do @ifood que faz o cupom pra primeira compra dai alguem te disponibiliza ele e nao pega https://t.co/fgnssfvyp9</t>
-  </si>
-  <si>
-    <t>ifood disponibiliza versão mais leve do app para levar a experiência a mais pessoas https://t.co/9dflnzlyog</t>
-  </si>
-  <si>
-    <t>@lauaneeeee @ifood boa! achei q no @reclameaqui resolveria...mas pelo visto, n</t>
-  </si>
-  <si>
-    <t>amo ser patrocinada pelo james/ifood/rappi/uber eats. vocês são meus amô &amp;lt;3</t>
-  </si>
-  <si>
-    <t>@messias0 eu perdi alguma coisa? acordei e ta uma galera gastando o vinicius sobre esse negócio de ifood kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@nvrmlana @ifood eu pedi 9:30 da manhã kkkk tenta pedir o mais cedo q vc conseguir pq entregam mais rápido</t>
-  </si>
-  <si>
-    <t>@ipavanelik kkkkkkkk e nada, mano ifood é o quente</t>
-  </si>
-  <si>
-    <t>pelo menos eu recebo cantada do ifood</t>
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/dladc04wtf</t>
+  </si>
+  <si>
+    <t>ifood salvou meu dia com esse cupom ❤</t>
+  </si>
+  <si>
+    <t>@itswess @ifood q??? comassim me diz como faz eu qeuero</t>
+  </si>
+  <si>
+    <t>os publicitários do @ifood devem estar espionando a gente também, pq olha, esse nível de acerto da previsão tá altíssimo. https://t.co/my7ra9jpem</t>
+  </si>
+  <si>
+    <t>pedi rango no ifood e fui ler as avaliação só dps.... maioria 1,0 pqp serase me fodi</t>
+  </si>
+  <si>
+    <t>o @ifood me irrita</t>
+  </si>
+  <si>
+    <t>justo hoje o ifood resolveu cumprir a previsão de entrega</t>
+  </si>
+  <si>
+    <t>todos os restaurantes que eu pedia pelo ifood agora inventaram de só fazer retirada. pra ter que ir lá buscar a comida não precisa de aplicativo né, a ideia era justamente o conforto de receber em casa. nossa, nada pode dar certo pra essa gente que já começam a fazer merda</t>
+  </si>
+  <si>
+    <t>o nível de distração é tanto que eu to aqui de boa hidratando os cotovelos enquanto olho preço de sanduíche de pastrami no ifood</t>
+  </si>
+  <si>
+    <t>@dudaantonin @ifood uhum... pp está em um relacionamento super sério com o ifood.</t>
+  </si>
+  <si>
+    <t>rt @onedinfinite: então quer dizer que o maycon vai colocar os queijos pra vender no @ifood , já vou pedir o meu com o cupom de desconto de…</t>
+  </si>
+  <si>
+    <t>não tem nada pra comer em casa, pedi uma tapioca com frango catupiry e bacon por 7 reais no ifood top</t>
+  </si>
+  <si>
+    <t>desconto no ifood de $20 na primeira compra, corre por tempo limitado, código: 85l1nrvmqa</t>
+  </si>
+  <si>
+    <t>@_vinibianchini “fiz” fez a compra no ifood né, n sabia nem temperar um frango</t>
+  </si>
+  <si>
+    <t>@v1tuthug pede para mim ai, na minha conta do ifood, o meu pedido dá 3 tu pega 4 aqui up</t>
+  </si>
+  <si>
+    <t>se você soubessem o que os restaurantes sofrem com a logística de entrega via ifood....</t>
+  </si>
+  <si>
+    <t>alô @ifood, responde aí! https://t.co/lldqwl9wjt</t>
+  </si>
+  <si>
+    <t>@ifood tá rolando prob no pagamento com cartão? to tentando desde ontem e da erro no pagamento, já tentei dois cartões!</t>
+  </si>
+  <si>
+    <t>obrigada @ifood https://t.co/5g6ziecry5</t>
+  </si>
+  <si>
+    <t>obrigada ifood pelos 15 reais de cupom</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
 rappi:
-gkz310126052 - 30 reais + 150 em frete. 
+gkz310126052 -  30 reais + 150 em frete.
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem https://t.co/85ngqgluqu</t>
+  </si>
+  <si>
+    <t>td dia esse ngc de cupom ai, ifood ta acabando cmg</t>
+  </si>
+  <si>
+    <t>acabei de pedir um lanche do subway e um refri e saiu 3 reais obrigado pelos mimos @ifood</t>
+  </si>
+  <si>
+    <t>rt @lpwirgoski: cupom de desconto do ifood https://t.co/mdrtxguekb</t>
+  </si>
+  <si>
+    <t>@ifood voltou sim, obrigaaada 😊</t>
+  </si>
+  <si>
+    <t>pedi uma marmitex no ifood era 11h30, a desgraça foi chegar agora e faltando coisa ainda..... to o puro ódio</t>
+  </si>
+  <si>
+    <t>se o ifood aceitasse cartão da poupança da caixa seria meu fimmmm</t>
+  </si>
+  <si>
+    <t>trabalhar pra pagar lanches do ifood pra morena
+ta, mas pra qual morena?????</t>
+  </si>
+  <si>
+    <t>rt @ana_cms_: senhor, tire de mim essa vontade de pedir ifood q eu nao tenho dinheiro esse mês</t>
+  </si>
+  <si>
+    <t>dps q eu pedi o lanche a desgrama do ifood manda cupom</t>
+  </si>
+  <si>
+    <t>feliz que o fav vai colocar a venda dos queijos pelo @ifood  tô louca pra provar desse queijo mineiro 😋😍  e vou pedir com o meu cupom cecchi15 😌</t>
+  </si>
+  <si>
+    <t>pedi uma coca seiscentas no ifood</t>
+  </si>
+  <si>
+    <t>@gabrielfuh_ o china do bar ponto fala q o ifood fode mt restaurante</t>
+  </si>
+  <si>
+    <t>@estatelada vamo ve um filme la em ksa. vc leva o ifood. ta ai filme com segunda intençao.</t>
+  </si>
+  <si>
+    <t>@rekahop @ifood tem uma parte de chat no ifood, onde vc reclama lá, eles entram em contato com o restaurante e dependendo, reembolsam o dinheiro</t>
+  </si>
+  <si>
+    <t>rt @gabrielfuh_: se você soubessem o que os restaurantes sofrem com a logística de entrega via ifood....</t>
+  </si>
+  <si>
+    <t>pedi 2 bolo  de potes por 2 reais, vlw ifood</t>
+  </si>
+  <si>
+    <t>pedir almoço num restaurante avaliado como super do ifood e o gosto ser abaixo de péssimo... paciência 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>rt @jdfeltrin: ifood: vc recebeu um cupom!!!!
+(esse cupom é valido para compras acima de r$800 nos restaurantes "kebab do pipo" e "rolinha…</t>
+  </si>
+  <si>
+    <t>@ifood app do capeta</t>
+  </si>
+  <si>
+    <t>rt @fosklantejoula: pelo menos eu sei fazer comida criminalmente bem 
+fodase o ifood</t>
+  </si>
+  <si>
+    <t>@y97ks acabando de acordar e pedindo comida no ifood, porque num tô com disposição pra cozinhar hoje. 🤧</t>
+  </si>
+  <si>
+    <t>tem restaurante no ifood que é totalmente sem sentido, fui pedir um açaí agora, quando fui confirmar, apareceu uma mensagem falando que o pedido mínimo era de 60 reais kkkkkkkkk quem gasta 60 conto em açaí, caralho</t>
+  </si>
+  <si>
+    <t>a adm ta sem criatividade, então só vai os cupão de desconto mesmo
+recargapay: sanvie494 ou pauama455
+wish: jvrzrfj ou tyjlftt 
+ifood: r5tbjy9vx9 ou bk5dvg7ree  
+99 pop: 4n6a56gu ou 8a8bdzrr
+rappi: f7y35173743 ou 27137507610 https://t.co/0zrm8ntwue</t>
+  </si>
+  <si>
+    <t>estou a procura disso viu. n cozinho mas da pra pedir uns ifood https://t.co/kqsqxiyta7</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
 picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem https://t.co/ra4epgtcyj</t>
-  </si>
-  <si>
-    <t>vamo ifood libera meu cupom que eu tô com fome já porra</t>
+https://t.co/aplxn4tneq -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/uf5wavflvx</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/5nmwoaoabr</t>
-  </si>
-  <si>
-    <t>ifood me enche de cupom mas não to podendo gastar com comidinhas assim nao</t>
-  </si>
-  <si>
-    <t>nossa tem uma doceria aqui perto e que entrega no ifood que tem uns bolos lindos... como eu queria umas fatias de brigadeiro, abacaxi com coco e morango com leite condensado... na verdade gostaria de provar todas, mas essas são topissimas</t>
-  </si>
-  <si>
-    <t>te amo, @ifood . você me deixa mais pobre, mas te amo. ♥️</t>
-  </si>
-  <si>
-    <t>@ifood obrigada pelo atendimento horroroso, ou melhor, pela falta de atendimento. meu pedido foi feito às 11h43, constava como entregue às 11h44, e sequer consigo resolver com esse app todo errado https://t.co/rw0w6zkpnx</t>
-  </si>
-  <si>
-    <t>rt @marilupus: librianas achei um lugar otimo no ifood pra gente https://t.co/wlirvtjdu2</t>
-  </si>
-  <si>
-    <t>ganhei cupom no ifood e minha quentinha saiu só 8 reais 🤩 aulass</t>
-  </si>
-  <si>
-    <t>@ifood @milfalacoes responde @ifood não se faça de bobo</t>
-  </si>
-  <si>
-    <t>@viniwebber_ só não joguei pq havia pedido pelo ifood amiga</t>
-  </si>
-  <si>
-    <t>cupom ifood r$15
-primeira compra
-cupom: hgfry4kgus
-mínimo r$20</t>
-  </si>
-  <si>
-    <t>@nathalia_piva o ifood tinha me abandonado, eu ja estava uns 2 meses sem receber um cupom</t>
-  </si>
-  <si>
-    <t>comprei um lanche no bob's por 5.50 kkkk obrigado ifood</t>
-  </si>
-  <si>
-    <t>15 reais de desconto do nada obrigado ifood vou almoçar maneiro hj</t>
-  </si>
-  <si>
-    <t>rt @juziuzi: serio que vc chama isso de almoço @ifood?? https://t.co/dg8910gwps</t>
-  </si>
-  <si>
-    <t>ganhei um cupom no ifood de 15 reais, pedi uma parada de 17 no debito. os caras me deram o açaí de graça porque estavam sem maquina</t>
-  </si>
-  <si>
-    <t>@tboaventura_ @ifood abre reclamação no procon, dá pra fazer online e eles tem o prazo pra responder e resolver</t>
-  </si>
-  <si>
-    <t>ifood matando meu desejo de strogonoff 🤤 desconto diário é tudo p mim</t>
-  </si>
-  <si>
-    <t>vou almoçar por 3 reais obrigado ifood pelo cupom</t>
-  </si>
-  <si>
-    <t>irritada com o ifood</t>
-  </si>
-  <si>
-    <t>@ifood chegou não</t>
-  </si>
-  <si>
-    <t>o cara pediu aqui na loja, através do ifood r$ 800,00 só de whisky😂
-inveja branca!</t>
-  </si>
-  <si>
-    <t>cadê o cupom do ifood nas horas que eu preciso</t>
-  </si>
-  <si>
-    <t>ifood não manda um desconto bom quando tô trabalhando de manhã 😒😂</t>
-  </si>
-  <si>
-    <t>ifood ladrão que ódio</t>
-  </si>
-  <si>
-    <t>agora comprei meu almoço pelo ifood e paguei 1 real.</t>
-  </si>
-  <si>
-    <t>ifood cadê meu cupom????, eu quero pedir um chiquinho aaaaaah</t>
-  </si>
-  <si>
-    <t>eu só queria um cupom do @ifood pro almoço, mas já faz dias que não recebo. triste realidade.</t>
-  </si>
-  <si>
-    <t>@laholiva @juziuzi @ifood vira e mexe compro esse primeiro por 5 reais</t>
-  </si>
-  <si>
-    <t>outra coisa também é que um monte de gente usa ifood, uber, etc... mesmo criticando ainda assim é usuário.</t>
-  </si>
-  <si>
-    <t>q vontade de um cu
-pom do @ifood</t>
-  </si>
-  <si>
-    <t>meu deus o ifood com cupom de 15 reais</t>
-  </si>
-  <si>
-    <t>obrigada pelo mimo @ifood https://t.co/4ioyohvfbd</t>
-  </si>
-  <si>
-    <t>a promoção do the bowl salvou meu almoço! poke de peixe branco com 30% de desconto, obrigada @ifood</t>
-  </si>
-  <si>
-    <t>@ifood cadê os cupons ? ❤️ kkkkkkkk</t>
-  </si>
-  <si>
-    <t>@marialvz tendiii
-eu tenho o ifood mas mal uso k</t>
-  </si>
-  <si>
-    <t>gastar cm ifood é um caminho sem volta...</t>
-  </si>
-  <si>
-    <t>11:06 da tarde ja e ifood n me mandou um cupom que palhaçada é essa</t>
-  </si>
-  <si>
-    <t>@biajustin666 vê no ifood se não tem entrega</t>
-  </si>
-  <si>
-    <t>sabe aquele dia que você resolver usar o @ifood pela primeira vez e não acha os cupons no twitter...então...</t>
-  </si>
-  <si>
-    <t>@ifood engraçadinho de novo com os cupons. https://t.co/r8jtxuvjvt</t>
-  </si>
-  <si>
-    <t>pedi ifood e agora to chatiada pq o motoqueiro deve estar na chuva 😭</t>
-  </si>
-  <si>
-    <t>10 da manhã e os ifood ja pensando na proxima gracinha https://t.co/bkxm8wp0es</t>
-  </si>
-  <si>
-    <t>ifood sempre salva meu almoço, amo</t>
-  </si>
-  <si>
-    <t>@ifood ladrões</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/6ydfdraz4q</t>
-  </si>
-  <si>
-    <t>vem almoçar mafriendssss
-rappi $150,00: 9io38644890
-#ifood
-#uber 
-#ubereats
-#rappi
-#cupom
-#99taxi
-#picpay</t>
-  </si>
-  <si>
-    <t>só a decepção com @ifood bichooo
-perdi 16 reais</t>
-  </si>
-  <si>
-    <t>almoçar com 6 pila eh mt bom   obg por td ifood</t>
-  </si>
-  <si>
-    <t>@adrualdo é um grande problema esse livro, digo, uma cozinha numa livraria? parece uma infinidade de possíveis desastres... morando sozinha numa livraria de sp, eu pediria ifood pra diminuir as chances de uma catástrofe literária kkk</t>
-  </si>
-  <si>
-    <t>almoço por 4 reais obrigado ifood 🙏🙏🙏🙏🙏🙏🙏🙏</t>
-  </si>
-  <si>
-    <t>@sweet_morgado filha da próxima vez eu levo pra você
-sou a própria ifood 😢😢😢</t>
-  </si>
-  <si>
-    <t>@_juliasarahfr no ifood tem bastante na hora do almoço ju</t>
-  </si>
-  <si>
-    <t>rt @ydngomes: alguém me manda cupom de ifood</t>
-  </si>
-  <si>
-    <t>meu ifood chegou e quando eu cheguei no térreo reparei que deixei o cartão para trás burro</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? bárbara machado e nós do #ifood vamos te ajudar! insira o cupom rrb68m68nr e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/rw3ptczhub</t>
-  </si>
-  <si>
-    <t>@itsnbhdmadu obrigada mamãe ifood</t>
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/pxoqysenip</t>
+  </si>
+  <si>
+    <t>primeira compra..almoco quase de graça bateu aquela fome? murilo e nós do #ifood vamos te ajudar! insira o cupom sn28edx1ae e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/q0akjhsb24</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -1437,41 +1093,123 @@
 picpay  
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb: 
-https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem</t>
-  </si>
-  <si>
-    <t>paguei 2 reais no meu almoço, obrigada ifood você é um amorzinho</t>
-  </si>
-  <si>
-    <t>tenho que aprender a dizer não pro ifood sempre que chegar cupom</t>
-  </si>
-  <si>
-    <t>pedi um almoço por 2 reais no ifood, nem queria</t>
-  </si>
-  <si>
-    <t>pedi uma sopinha pelo ifood, é só o que eu preciso</t>
-  </si>
-  <si>
-    <t>@jp_sartorio ao invés do ifood, pensei que poderia ser a reserva ou hurley tbm</t>
-  </si>
-  <si>
-    <t>o barulho da rappi e do ifood chega a me apavorar de tanto que eu vejo ele tocar no serviço, fiquei traumatizada!!! 🤦</t>
-  </si>
-  <si>
-    <t>era só esse cupom do ifood msm😔🙏🏾</t>
-  </si>
-  <si>
-    <t>tá vindo de jegue né? palhaçada 
-@ifood https://t.co/xromptrwpf</t>
-  </si>
-  <si>
-    <t>eu amo o @ifood loop</t>
-  </si>
-  <si>
-    <t>quase a sala toda pediu comida no ifood por 1 real kskskksksksksks</t>
-  </si>
-  <si>
-    <t>o ifood simplesmente perdeu todos os atrativos, espero que a amazon crie um ifood em breve</t>
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/oomtmzl8io</t>
+  </si>
+  <si>
+    <t>acabo de chegar um ifood pra mim aqui na firma e a lu pergunto “mas você não almoçou?” daí respondi “almocei mas to comendo igual uma corna”. rimos muito, mas dentro desesperada https://t.co/qwurmnj5em</t>
+  </si>
+  <si>
+    <t>a padaria jucá vai me fazer voltar a usar ifood</t>
+  </si>
+  <si>
+    <t>se bater aquela fome, e tiver dúvidas do que comer dá uma conferida no boteco82 pelo whatsapp ou ifood ! https://t.co/vlsuw6iu3q</t>
+  </si>
+  <si>
+    <t>@whysodisastrous @bluejoyriding amanha tenho minha primeira promoh de cupom do ifood amo???</t>
+  </si>
+  <si>
+    <t>@izabelaa_s kkkkkkkkkkkkk por causa do cupom do ifood miga</t>
+  </si>
+  <si>
+    <t>nossa que ódio pedi um lanche kkkkk agr o ifood mando cupom 🙄</t>
+  </si>
+  <si>
+    <t>@luc4sandrey @ifood ata pq comer um lanche as 9 da matina é normal</t>
+  </si>
+  <si>
+    <t>ei @ifood libera um cupom pra nois lanchá</t>
+  </si>
+  <si>
+    <t>tive q pedir meu almoço no ifood 😭😭😭 não aguento mais essa vida</t>
+  </si>
+  <si>
+    <t>e nem posso pedir ifood kk ódio</t>
+  </si>
+  <si>
+    <t>@octaviasbutler @ifood aparentemente sim, acho q quinta tem de novo</t>
+  </si>
+  <si>
+    <t>eu tô ficando com ódio do ifood já.</t>
+  </si>
+  <si>
+    <t>esses dias fui pedir um ifood e eles cancelaram duas vezes, tô dando um gelo.
+eles mandam notificação eu nem olho mano</t>
+  </si>
+  <si>
+    <t>será que o ifood entrega vc aqui na minha casa?</t>
+  </si>
+  <si>
+    <t>rt @laholiva: tinha um gatinho na avenida o moço do ifood pegou e ta sentado fazendo carinho https://t.co/t1bkd0xyov</t>
+  </si>
+  <si>
+    <t>as pessoa do ifood na cidade de vocês tbm são sem noção assim?
+olha o preço dessas cestas kkkkkkkkkkkk https://t.co/hcypjuzl9z</t>
+  </si>
+  <si>
+    <t>achei um restaurante no ifood que vende o suco natural mais barato que o refri ❤</t>
+  </si>
+  <si>
+    <t>cupom ifood r$ 15
+primeira compra
+cupom: hgfry4kgus
+mínimo r$b20</t>
+  </si>
+  <si>
+    <t>@rafs_fcs minha barriga diz: comida fit do ifood
+meu bolso diz: quentinha de 10 conto https://t.co/tv4b4xvec0</t>
+  </si>
+  <si>
+    <t>socorro maycon vai colocar os queijos dele pra vender no ifood</t>
+  </si>
+  <si>
+    <t>obrigado ifood por me manter como uma deusa</t>
+  </si>
+  <si>
+    <t>só eu q gosto de ficar passando vontade olhando o cardapio do ifood o dia inteiro ?</t>
+  </si>
+  <si>
+    <t>15 reais de cupom no ifood, obrg deus kkk</t>
+  </si>
+  <si>
+    <t>pqp alguém desinstala o rappi e o ifood do meu celular to gastando todo o meu dinheiro com isso</t>
+  </si>
+  <si>
+    <t>tirei você vai ganhar comida de graça! @ubereats @ifood pode entrar https://t.co/xweaycius0</t>
+  </si>
+  <si>
+    <t>gloria a deus a existencia do ifood que faz entrega por 2,00 e o açai com tudo que tem direito por 9,00 eu amo essa vida</t>
+  </si>
+  <si>
+    <t>espero muito que o loop do ifood seja por tempo indeterminado</t>
+  </si>
+  <si>
+    <t>para além dos restaurantes, ifood coloca qr code em bancas de jornal https://t.co/x04ryhyvnb https://t.co/10ljfdeuga</t>
+  </si>
+  <si>
+    <t>felicidade é seu amigo te mandar um cupom de ifood e seu doce sair 4 reais</t>
+  </si>
+  <si>
+    <t>mano 
+eu fui tentar comprar um açaí pelo cartão no ifood sem saber se meu pai deixaria ou n
+aí qnd eu fui pagar 
+a loja do açaí tava fechada
+agr me diz se...
+isso foi o universo me falando pra não comprar</t>
+  </si>
+  <si>
+    <t>a comida saiu do restaurante tem uma hora e ainda não chegou. obrigada por tudo ifood</t>
+  </si>
+  <si>
+    <t>eu: não gasto mais dinheiro esse mês
+vivara: a
+ifood: a
+eu: perai</t>
+  </si>
+  <si>
+    <t>rt @_daisukeh: eu vo mata o ifood</t>
+  </si>
+  <si>
+    <t>ngm quer me mandar um almoço pelo ifood hj n?</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -1479,91 +1217,374 @@
 w75zj7cyem  - 10 reais no seu primeiro pedido  
 rappi:
 gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/xenklgysr1</t>
+  </si>
+  <si>
+    <t>20 reais num açaí pelo ifood acho q perdi o controle da minha vida</t>
+  </si>
+  <si>
+    <t>eu entendo @ifood</t>
+  </si>
+  <si>
+    <t>tenham um namorado que libere o card pra vc pedir seu almoço no ifood</t>
+  </si>
+  <si>
+    <t>eu: nao vou gastar meu dinheiro
+qualquer promoção do ifood: a 
+eu also: hum kk vou comprar</t>
+  </si>
+  <si>
+    <t>@luan_abreu2 pedi pelo uber eats com 50% off e ainda paguei mais barato que se tivesse pedido no ifood</t>
+  </si>
+  <si>
+    <t>@isclondone @ifood migo eles soltaram um cupom de 15 reais agora no almoço kakak adorei</t>
+  </si>
+  <si>
+    <t>ninguem aqui entrega ifood n? queria saber como é</t>
+  </si>
+  <si>
+    <t>pessoas que esquecem de almoçar e só lembram quando tem apenas 2 restaurantes disponíveis no ifood, me add</t>
+  </si>
+  <si>
+    <t>tô louca de fome e não deu pra mim pedir bgl no ifood, o ódio 🙄</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/i7zgeokk4a</t>
+  </si>
+  <si>
+    <t>@ifood eu nem abri o app hoje e do nada chega notificação de q meu pedido está em andamento. qndo vou olhar tem duas compras em andamento em sp, sendo q sou de bh. isso é um jogo garotas? https://t.co/vwz9ekwmr1</t>
+  </si>
+  <si>
+    <t>paguei 6 reais num smoothie do oakberry, deus abençoe o cupom no ifood</t>
+  </si>
+  <si>
+    <t>@arthuromxdxd @ifood se o ifood te responder igual a vivo fez eu vou rachar</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? nicolly freita vicente e nós do #ifood vamos te ajudar! insira o cupom tvaj7uq7ae e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/vcdab32pqz</t>
+  </si>
+  <si>
+    <t>@ifood o atendimento de vocês é péssimo. estou com um pedido atrasado a 40 minutos e simplesmente não consigo nenhum retorno do suporte de vocês.</t>
+  </si>
+  <si>
+    <t>@portilhocrvg @ifood pprt kkkkkkkkk vai virar sócia do mc junto cmg</t>
+  </si>
+  <si>
+    <t>nao consigo usar o cupom do ifood pq não tenho cartao de crédito inferno</t>
+  </si>
+  <si>
+    <t>rt @arrobasapata1: as pessoa do ifood na cidade de vocês tbm são sem noção assim?
+olha o preço dessas cestas kkkkkkkkkkkk https://t.co/hcyp…</t>
+  </si>
+  <si>
+    <t>@gabrielfuh_ e os q trabalham com ifood, rappi e uber eats? sofrem o triplo? rs</t>
+  </si>
+  <si>
+    <t>o entregador do ifood lá no fundo https://t.co/w13nfrav98</t>
+  </si>
+  <si>
+    <t>não creio que vou ter que ficar indo pra sp todo dia porque o ifood tá ramelando com nois aqui em sbc pqp</t>
+  </si>
+  <si>
+    <t>@dutnunes mano eu só peço uber eats é bem mais rapido e nunca deu problema, no ifood direto o entregador demorava errava o endereço etc</t>
+  </si>
+  <si>
+    <t>odeio esses anúncios do youtube, enfia no cu o ifood caralho</t>
+  </si>
+  <si>
+    <t>já era pra eu estar estudando para a prova de amanhã? já era sim, mas aí o que eu fui fazer? fui pedir uma torta doce da sodiê pelo ifood. ainda estou na dúvida se esses apps de entrega facilitam a minha vida ou se só me fazem cair em tentação. fica aí essa dúvida! 🤷🏻‍♀️</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay   
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem.</t>
+  </si>
+  <si>
+    <t>que bença receber açaí em casa nesse calor! valeu pelo cupom @ifood https://t.co/hhrqzp7gwx</t>
+  </si>
+  <si>
+    <t>os cupons de desconto do @ifood deveriam ser aplicáveis em compras no dinheiro tbm né!</t>
+  </si>
+  <si>
+    <t>eu te odeio @ifood caloteiro do caralho</t>
+  </si>
+  <si>
+    <t>alguem me manda ifood por caridad</t>
+  </si>
+  <si>
+    <t>queria pedir ifood mas tá chovendo coitado do entregador</t>
+  </si>
+  <si>
+    <t>maior preguiça de fazer comida, tive q apelar pro ifood kkkkkkk</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood aconteceu comigo no feriado, eles demoraram 3h pra me entregar e sem telefone
+fiz eles devolverem meu dinheiro e fui pro uber eats, que é o melhor por enquanto</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood ifood atualmente tá uma desgraça 
+eu só passo nervoso</t>
+  </si>
+  <si>
+    <t>o @ifood nem pra me mandar cupom de aniversário app tóxico</t>
+  </si>
+  <si>
+    <t>@ifood esse casal lindo aqui está de mesversário de namoro dia 19/09, desde o 1º encontro comemos hambúrguer juntos pois melhor lanche de todos!! 
+sábado vamos no show da banda que tocou quando ele me pediu em namoro e o que falta? isso mesmo, mais hambúrguer. 
+e um cupom de desconto 🥺</t>
+  </si>
+  <si>
+    <t>libera cupom pra sorvete, @ifood, nunca te pedi nada https://t.co/0tdef81nne</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/jfmsfoatze</t>
+  </si>
+  <si>
+    <t>tomar um açaizinho por 1,90 uhuuuu obg pelo descontinho @ifood</t>
+  </si>
+  <si>
+    <t>@ifood por deusss não tem nenhum dado errado, pq nao to conseguindo pedir? 😰😨😰😨 https://t.co/bq02zsaefh</t>
+  </si>
+  <si>
+    <t>rt @algustbueri: socorro que o maycon vai colocar os queijos dele pra vender no ifood e uber eats... vou comprar muito 😍😍😍 quero aquele pro…</t>
+  </si>
+  <si>
+    <t>só porque estou no interior, o ifood me manda 4 cupons por dia https://t.co/nyfa4b4q3w</t>
+  </si>
+  <si>
+    <t>- brinque com seu pet
+- tudo vai passar, lembre-se disso!
+- coma uma comida que você goste, você pode pedir pelo uber eats,rappi ou ifood.</t>
+  </si>
+  <si>
+    <t>ja pedi meu açaí no ifood pq jaja tem barça</t>
+  </si>
+  <si>
+    <t>comer um ifood que saiu por  4 reais ... é o preço de esperar 60 minutos pra comer</t>
+  </si>
+  <si>
+    <t>a probabilidade de um emprego chegou e eu tô nervosa demais pedindo comida no ifood</t>
+  </si>
+  <si>
+    <t>@thehunterlol1 @ifood pf to passando fome.</t>
+  </si>
+  <si>
+    <t>achei um restaurante nordestino no ifood hoje eu emprenho</t>
+  </si>
+  <si>
+    <t>vou começar a entregar lanche no ifood pq ta dificil com a renda que eu tenho</t>
+  </si>
+  <si>
+    <t>rt @mabellaever: feliz que o fav vai colocar a venda dos queijos pelo @ifood  tô louca pra provar desse queijo mineiro 😋😍  e vou pedir com…</t>
+  </si>
+  <si>
+    <t>@ifood caloteiros</t>
+  </si>
+  <si>
+    <t>@leon4ra @ifood faz meses que tem kkkkkk beloved?</t>
+  </si>
+  <si>
+    <t>um dos meus hobby é dar feedback no ifood assim que como algo</t>
+  </si>
+  <si>
+    <t>ai ifood obrigada pelos mimos</t>
+  </si>
+  <si>
+    <t>pensando nele... cupom da tarde do ifood</t>
+  </si>
+  <si>
+    <t>eu amo um aplicativo e o nome dele é ifood.</t>
+  </si>
+  <si>
+    <t>podia ter ifood aqui mano, que preguiça de sair no sol pra comprar comid</t>
+  </si>
+  <si>
+    <t>@annybbtrz sim cara!!! eu sempre peço pelo maria açaí do méier, no ifood. aí agora fui pedir, apareceu como opção “maria açaí norte shopping” 😍</t>
+  </si>
+  <si>
+    <t>@gysa__ amiga n entrega aqui diz q é area de risco
+do ifood so quem entrega aqui é aquela pizzaria do jorginho lembra? q agora é ali naquele posto do sobec e o habibs mas so vem ate a upa do bom pastor ai tem q ir la buscar kkkk</t>
+  </si>
+  <si>
+    <t>queria um cupom do ifood pra tomar um açaí sem sair de casa</t>
+  </si>
+  <si>
+    <t>@ibrvhimis @ifood nossa vei mucei o trem no seco foda viu</t>
+  </si>
+  <si>
+    <t>rt @igortmilhos: ifood e rappi compraram o youtube não é possível</t>
+  </si>
+  <si>
+    <t>nunca mais @ifood, 2 horas pra entregar meu milk shake 😡😡</t>
+  </si>
+  <si>
+    <t>a partir de agora os queijos da donpringler vão ser vendidos no ifood e demais app, noticia boa 🧀💪🏻 https://t.co/26fpjqcfjm</t>
+  </si>
+  <si>
+    <t>@vinifranzen olhando a notificação de cupom do ifood</t>
+  </si>
+  <si>
+    <t>rt @rekahop: ow @ifood minha irma pediu um loop que não chegou e foi dado como entregue. como que faz????! fica por isso mesmo???? tem que…</t>
+  </si>
+  <si>
+    <t>onde eu tava com a cabeça qnd decidi pedir esse loop do ifood p comer???</t>
+  </si>
+  <si>
+    <t>essa merda de ifood, me fudeu</t>
+  </si>
+  <si>
+    <t>@tboaventura_ @ifood e se @ifood ?? só é bom na hora de pagar pelo ads mas tá cagando pra cliente, hein?</t>
+  </si>
+  <si>
+    <t>pedi um açaí no ifood</t>
+  </si>
+  <si>
+    <t>3hrs procurando cupom do ifood pq n tenho comida aq</t>
+  </si>
+  <si>
+    <t>fui obrigada a pedir uma comida pelo ifood, não tô com tempo nem pra cozinhar hoje kkkk</t>
+  </si>
+  <si>
+    <t>@nadiardgs uber
+netflix
+spotify
+rappi
+ifood
+todos trouxeram serviços antes muito mais caros ou muito menos disponíveis para a camada mais pobre, que é uma das que mais consome no país. mas a esquerdinha a favor dos pobres acha defeito e diz que o capitalismo explora o trabalhador</t>
+  </si>
+  <si>
+    <t>tava tao gostoso, ainda mais pelo fato do preço 
+@ifood  ❤❤❤❤❤❤ https://t.co/z7rilt3i48</t>
+  </si>
+  <si>
+    <t>eu to tão puta com o atendimento @ifood que eu vou encher a caixa de entrada deles até eles me responderem. cansei</t>
+  </si>
+  <si>
+    <t>galera achando bacana a ideia do ifood entregar lanche via drone “pelo menos não vão empinar a moto” filha da puta pensa quantos pai de família traz o sustento por causa disso.</t>
+  </si>
+  <si>
+    <t>caralho como o ifood transformou aquela desgraça de app deles em 280kb alguém me explica</t>
+  </si>
+  <si>
+    <t>@gabrielfuh_ ifood só é "bom" para o cliente final, ao empreendedor é uma merda. tinha no restaurante da minha família e só dava problema. logo menos quando o whatsapp começa a opertar ominichannel estilo o wechat ja era para esses marketplaces.</t>
+  </si>
+  <si>
+    <t>alguém tem cupom do ifood? pelo amor de deus eu não comi nada o dia inteiro e to passando mal</t>
+  </si>
+  <si>
+    <t>e pra comemorar que eu tenho um emprego 
+meu açaí de 500ml por 3,50 obrigada ifood por esse momento</t>
+  </si>
+  <si>
+    <t>rt @angeloluizz: agora a fatura do jovem será de uber ifood e ônibus https://t.co/gu1zlxsisv</t>
+  </si>
+  <si>
+    <t>eu morrendo de fome, consegui um cupom pelo ifood, mas com a minha sorte eles não tão aceitando o cartão sendo que tá tudo ok nele, ifood vc já foi melhor</t>
+  </si>
+  <si>
+    <t>pegar o cupom do ifood e tomar um açaí por 2 conto... tô com sorte</t>
+  </si>
+  <si>
+    <t>@rdvtzz @ifood ate agora eles nem me responderam vei ksjskakha</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete.
 picpay 
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:  
+https://t.co/uku9xklm4x -&amp;gt;  até 179 reais de créditos em hospedagem</t>
+  </si>
+  <si>
+    <t>rt @matheuss_m04: pedi ifood dentro da escola kkkk ninguem entendeu nada</t>
+  </si>
+  <si>
+    <t>raposos só tem que ter ifood ou rappi</t>
+  </si>
+  <si>
+    <t>ifood única pessoa interessada no meu drama me proveu um cupom para realizar esse sonho</t>
+  </si>
+  <si>
+    <t>aliás tô com fome, duas horas pra conseguir mandar uma panqueca, tá foda @ifood</t>
+  </si>
+  <si>
+    <t>alguém manda um ifood aq p mim no trabalho, to com fome</t>
+  </si>
+  <si>
+    <t>ia pagar a merda do almoço com dinheiro mas meu cartão tava salco no ifood essa merda pagou pelo app sozinho porra mesmo</t>
+  </si>
+  <si>
+    <t>@lolaferreira @brownebrownie nesse mundo tem tv a cabo, internet, ifood, baladinha e bonequinhos?</t>
+  </si>
+  <si>
+    <t>finalmente ifood me mimando com cupom de 15 reais e que aceita pagamento na entrega 🤧🙏🏼</t>
+  </si>
+  <si>
+    <t>@ifood me ajudaaaa</t>
+  </si>
+  <si>
+    <t>acabei de ser enganada no @ifood fiz um pedido e o crl do pedido não chegou, no aplicativo eles mesmos confirmaram a entrega e já foi cobrado no cartão de crédito</t>
+  </si>
+  <si>
+    <t>rt @_bfferreira: ganhei cupom no ifood e pedi sacolé gourmet pra mim e pras meninas</t>
+  </si>
+  <si>
+    <t>@mathss12 @ifood pq cara</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 -  30 reais + 150 em frete.
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb: 
-https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem!</t>
-  </si>
-  <si>
-    <t>@ifood e o meu problema @ifood ?? ta facil responder todo mundo ne? os mais humides vc não responde dm</t>
-  </si>
-  <si>
-    <t>ganhei 15 reais de desconto no ifood aaaaaa</t>
-  </si>
-  <si>
-    <t>@hydratedgiusti @ifood o backlog do social media do ifood deve tá gigantesco kkkkk</t>
-  </si>
-  <si>
-    <t>passa uma vergonha do caralho fazendo “ publi “ de ifood se sentindo o blogueiro no insta kkkkkkkkkkkk sinto pena — aí é fodaaaaa kkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk https://t.co/vy53lwssdy</t>
-  </si>
-  <si>
-    <t>vou pedi um ifood depois cupom de 15</t>
-  </si>
-  <si>
-    <t>ifood me manda cupom de 15 reais e o restaurante que eu gosto e sempre aceita cupom hoje não tá aceitando pqp</t>
-  </si>
-  <si>
-    <t>mano n acredito que o @ifood tirou a opção de ligar pro restaurante, meu pedido veio sem refrigerante, q eu ja paguei pelo app, e ate agora nao consegui ligar la pra falar isso com eles eu vo explodir</t>
-  </si>
-  <si>
-    <t>@felipeolimadev @ifood r$15 com pedido mínimo de r$17 (!!!)</t>
-  </si>
-  <si>
-    <t>chegou ifood em goio agora, o ápice na moral</t>
-  </si>
-  <si>
-    <t>@ifood manda cupom de 8 reais
-id: adolfo matias</t>
-  </si>
-  <si>
-    <t>obg ifood pelo meu açaí de 3 reaix</t>
-  </si>
-  <si>
-    <t>minha mãe só quer saber de ifood agora. acabou de me pedir uma salada, ela é fit ela</t>
-  </si>
-  <si>
-    <t>sdds qndo o ifood mandava cupom p restaurantes q eu qria</t>
-  </si>
-  <si>
-    <t>vou comprar um prato de strogonoff por r$ 2,00
-@ifood, eu te amo! ♥️</t>
-  </si>
-  <si>
-    <t>ifood cadê o meu liiiiiiaaaaanchiiii???</t>
-  </si>
-  <si>
-    <t>eu morrendo de vontade de um pastelzinho de belém do rabibi, ia pedir no ifood e até desisti, mano a taxa de entrega é mais caro que o pastelzinho</t>
-  </si>
-  <si>
-    <t>cupom uber eats
-código: 10setembro2
-. 
-entrega grátis em 10 pedidos
-. 
-válido até 18/09
-#uber #cabify #easy #99pop #ifood #rappi #eats https://t.co/qnhueoc3nc</t>
-  </si>
-  <si>
-    <t>@ifood @ifood  iai bora to esperando dm</t>
-  </si>
-  <si>
-    <t>cupom do ifood de 15 reais essas horas é muita tentação</t>
-  </si>
-  <si>
-    <t>até que enfim ifood mandou cupom slc</t>
-  </si>
-  <si>
-    <t>ifood me dando 15 reais de cupom.. to vendo ql a sua</t>
-  </si>
-  <si>
-    <t>mais um dia comprando lanches por menos de 5 reau
-te amo ifood</t>
-  </si>
-  <si>
-    <t>IMPOSSIVEL SABER</t>
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem</t>
+  </si>
+  <si>
+    <t>@alissonyn kkk meu cartão é so ifood</t>
+  </si>
+  <si>
+    <t>RUIM</t>
+  </si>
+  <si>
+    <t>CUPOM</t>
   </si>
   <si>
     <t>BOM</t>
+  </si>
+  <si>
+    <t>IRRELEVANTE</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1943,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1951,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1959,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1967,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1975,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1983,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1991,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1999,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2007,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2015,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2023,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2031,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2039,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2047,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2055,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2063,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2071,7 +2092,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2079,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2087,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2095,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2103,7 +2124,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2111,7 +2132,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2119,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2127,7 +2148,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2135,7 +2156,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2143,7 +2164,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2151,7 +2172,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2159,7 +2180,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2167,7 +2188,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2175,7 +2196,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2183,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2191,7 +2212,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2199,7 +2220,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2207,7 +2228,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2215,7 +2236,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2223,7 +2244,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2231,7 +2252,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2239,7 +2260,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2247,7 +2268,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2255,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2263,7 +2284,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2271,7 +2292,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2279,7 +2300,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2287,7 +2308,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2295,7 +2316,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2303,7 +2324,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2311,7 +2332,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2319,7 +2340,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2327,7 +2348,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2335,7 +2356,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2343,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2351,7 +2372,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2359,7 +2380,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2367,7 +2388,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2375,7 +2396,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2383,7 +2404,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2391,7 +2412,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2399,7 +2420,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2407,7 +2428,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2415,7 +2436,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2423,7 +2444,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2431,7 +2452,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2439,7 +2460,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2447,7 +2468,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2455,7 +2476,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2463,7 +2484,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2471,7 +2492,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2479,7 +2500,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2487,7 +2508,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2495,7 +2516,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2503,7 +2524,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2511,7 +2532,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2519,7 +2540,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2527,7 +2548,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2535,7 +2556,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2543,7 +2564,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2551,7 +2572,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2559,7 +2580,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2567,7 +2588,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2575,7 +2596,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2583,7 +2604,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2591,7 +2612,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2599,7 +2620,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2607,7 +2628,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2615,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2623,7 +2644,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2631,7 +2652,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2639,7 +2660,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2647,7 +2668,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2655,7 +2676,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2663,7 +2684,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2671,7 +2692,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2679,7 +2700,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2687,7 +2708,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2695,7 +2716,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2703,7 +2724,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2711,7 +2732,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2719,7 +2740,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2727,7 +2748,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2735,7 +2756,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2743,7 +2764,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2751,7 +2772,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2759,7 +2780,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2767,7 +2788,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2775,7 +2796,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2783,7 +2804,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2791,7 +2812,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2799,7 +2820,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2807,7 +2828,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2815,7 +2836,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2823,7 +2844,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2831,7 +2852,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2839,7 +2860,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2847,7 +2868,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2855,7 +2876,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2863,7 +2884,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2871,7 +2892,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2879,7 +2900,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2887,7 +2908,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2895,7 +2916,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2903,7 +2924,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2911,7 +2932,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2919,7 +2940,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2927,7 +2948,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2935,7 +2956,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2943,7 +2964,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2951,7 +2972,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2959,7 +2980,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2967,7 +2988,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2975,7 +2996,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2983,7 +3004,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2991,7 +3012,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2999,7 +3020,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3007,7 +3028,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3015,7 +3036,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3023,7 +3044,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3031,7 +3052,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3039,7 +3060,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3047,7 +3068,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3055,7 +3076,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3063,7 +3084,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3071,7 +3092,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3079,7 +3100,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3087,7 +3108,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3095,7 +3116,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3103,7 +3124,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3111,7 +3132,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3119,7 +3140,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3127,7 +3148,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3135,7 +3156,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3143,7 +3164,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3151,7 +3172,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3159,7 +3180,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3167,7 +3188,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3175,7 +3196,7 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3183,7 +3204,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3191,7 +3212,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3199,7 +3220,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3207,7 +3228,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3215,7 +3236,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3223,7 +3244,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3231,7 +3252,7 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3239,7 +3260,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3247,7 +3268,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3255,7 +3276,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3263,7 +3284,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3271,7 +3292,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3279,7 +3300,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3287,7 +3308,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3295,7 +3316,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3303,7 +3324,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3311,7 +3332,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3319,7 +3340,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3327,7 +3348,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3335,7 +3356,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3343,7 +3364,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3351,7 +3372,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3359,7 +3380,7 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3367,7 +3388,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3375,7 +3396,7 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3383,7 +3404,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3391,7 +3412,7 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3399,7 +3420,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3407,7 +3428,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3415,7 +3436,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3423,7 +3444,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3431,7 +3452,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3439,7 +3460,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3447,7 +3468,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3455,7 +3476,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3463,7 +3484,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3471,7 +3492,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3479,7 +3500,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3487,7 +3508,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3495,7 +3516,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3503,7 +3524,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3511,7 +3532,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3519,7 +3540,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3527,7 +3548,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3535,7 +3556,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3543,7 +3564,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3551,7 +3572,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3559,7 +3580,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3567,7 +3588,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3575,7 +3596,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3583,7 +3604,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3591,7 +3612,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3599,7 +3620,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3607,7 +3628,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3615,7 +3636,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3623,7 +3644,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3631,7 +3652,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3639,7 +3660,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3647,7 +3668,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3655,7 +3676,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3663,7 +3684,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3671,7 +3692,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3679,7 +3700,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3687,7 +3708,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3695,7 +3716,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3703,7 +3724,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3711,7 +3732,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3719,7 +3740,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3727,7 +3748,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3735,7 +3756,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3743,7 +3764,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3751,7 +3772,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3759,7 +3780,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3767,7 +3788,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3775,7 +3796,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3783,7 +3804,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3791,7 +3812,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3799,7 +3820,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3807,7 +3828,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3815,7 +3836,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3823,7 +3844,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3831,7 +3852,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3839,7 +3860,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3847,7 +3868,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3855,7 +3876,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3863,7 +3884,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3871,7 +3892,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3879,7 +3900,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3887,7 +3908,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3895,7 +3916,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3903,7 +3924,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3911,7 +3932,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3919,7 +3940,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3927,7 +3948,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3935,7 +3956,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3943,7 +3964,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3951,7 +3972,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3959,7 +3980,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3967,7 +3988,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3975,7 +3996,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3983,7 +4004,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3991,7 +4012,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3999,7 +4020,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4007,7 +4028,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4015,7 +4036,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4023,7 +4044,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4031,7 +4052,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4039,7 +4060,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4047,7 +4068,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4055,7 +4076,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4063,7 +4084,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4071,7 +4092,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4079,7 +4100,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4087,7 +4108,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4095,7 +4116,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4103,7 +4124,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4111,7 +4132,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4119,7 +4140,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4127,7 +4148,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4135,7 +4156,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4143,7 +4164,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4151,7 +4172,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4159,7 +4180,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4167,7 +4188,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4175,7 +4196,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4183,7 +4204,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4191,7 +4212,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4199,7 +4220,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4207,7 +4228,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4215,7 +4236,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4223,7 +4244,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4231,7 +4252,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4239,7 +4260,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4247,7 +4268,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4255,7 +4276,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4263,7 +4284,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4271,7 +4292,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4279,7 +4300,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4287,7 +4308,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4295,7 +4316,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4303,7 +4324,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4311,7 +4332,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4319,7 +4340,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4327,7 +4348,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4335,7 +4356,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4343,7 +4364,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4351,7 +4372,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4359,7 +4380,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4367,7 +4388,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4375,7 +4396,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4383,7 +4404,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4391,7 +4412,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4399,7 +4420,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4407,7 +4428,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4415,7 +4436,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4423,7 +4444,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4431,7 +4452,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4439,7 +4460,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4447,7 +4468,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4455,7 +4476,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4463,7 +4484,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4471,7 +4492,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4479,7 +4500,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4487,7 +4508,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4495,7 +4516,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4503,7 +4524,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4511,7 +4532,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4519,7 +4540,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4527,7 +4548,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4535,7 +4556,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4543,7 +4564,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4551,7 +4572,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4559,7 +4580,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4567,7 +4588,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4575,7 +4596,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4583,7 +4604,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4591,7 +4612,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4599,7 +4620,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4607,7 +4628,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4615,7 +4636,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4623,7 +4644,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4631,7 +4652,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4639,7 +4660,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4647,7 +4668,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4655,7 +4676,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4663,7 +4684,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4671,7 +4692,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4679,7 +4700,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4687,7 +4708,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4695,7 +4716,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4703,7 +4724,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4711,7 +4732,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4719,7 +4740,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4727,7 +4748,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4735,7 +4756,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4743,7 +4764,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4751,7 +4772,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4759,7 +4780,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4767,7 +4788,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4775,7 +4796,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4783,7 +4804,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4791,7 +4812,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4799,7 +4820,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4807,7 +4828,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4815,7 +4836,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4823,7 +4844,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4831,7 +4852,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4839,7 +4860,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4847,7 +4868,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4855,7 +4876,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4863,7 +4884,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4871,7 +4892,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4879,7 +4900,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4887,7 +4908,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4895,7 +4916,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4903,7 +4924,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4911,7 +4932,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4919,7 +4940,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4927,7 +4948,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4935,7 +4956,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4943,7 +4964,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4951,7 +4972,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4959,7 +4980,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4967,7 +4988,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4975,7 +4996,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4983,7 +5004,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4991,7 +5012,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4999,7 +5020,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -5007,7 +5028,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5015,7 +5036,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5023,7 +5044,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5031,7 +5052,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5039,7 +5060,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -5047,7 +5068,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -5055,7 +5076,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -5063,7 +5084,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -5071,7 +5092,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -5079,7 +5100,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -5087,7 +5108,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -5095,7 +5116,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -5103,7 +5124,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -5111,7 +5132,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5119,7 +5140,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -5127,7 +5148,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5135,7 +5156,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5143,7 +5164,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5151,7 +5172,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5159,7 +5180,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5167,7 +5188,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5175,7 +5196,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5183,7 +5204,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5191,7 +5212,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5199,7 +5220,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5207,7 +5228,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5215,7 +5236,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5223,7 +5244,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5231,7 +5252,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5239,7 +5260,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5247,7 +5268,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5255,7 +5276,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5263,7 +5284,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5271,7 +5292,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5279,7 +5300,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5287,7 +5308,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5295,7 +5316,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5303,7 +5324,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5311,47 +5332,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424" t="s">
-        <v>425</v>
-      </c>
-      <c r="C424" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="A425" t="s">
-        <v>426</v>
-      </c>
-      <c r="C425" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" t="s">
-        <v>427</v>
-      </c>
-      <c r="C426" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" t="s">
-        <v>428</v>
-      </c>
-      <c r="C427" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" t="s">
-        <v>429</v>
-      </c>
-      <c r="C428" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
